--- a/Data/Archive/Geo4.xlsx
+++ b/Data/Archive/Geo4.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\IRHEIS\IRHEIS\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Majid\Documents\GitHub\IRHEIS\Data\Archive\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="11775" windowHeight="5940"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11778" windowHeight="5940"/>
   </bookViews>
   <sheets>
     <sheet name="CountyAll" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">CountyAll!$A$1:$R$430</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Prov87!$A$1:$H$33</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -4656,7 +4656,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-3000401]0"/>
   </numFmts>
@@ -4664,7 +4664,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -4672,14 +4672,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="8"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -4714,8 +4714,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="XLConnect.String" xfId="1"/>
-    <cellStyle name="معمولی" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -4731,7 +4731,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="طرح زمینه Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -4993,17 +4993,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:CJ430"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="J199" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="O199" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D310" sqref="D310"/>
+      <selection pane="bottomRight" activeCell="D222" sqref="D222"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="3.7109375" style="1" customWidth="1" collapsed="1"/>
@@ -5023,7 +5022,7 @@
     <col min="89" max="16384" width="9" style="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5076,7 +5075,7 @@
         <v>1525</v>
       </c>
     </row>
-    <row r="2" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
@@ -5124,7 +5123,7 @@
         <v/>
       </c>
     </row>
-    <row r="3" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>32</v>
       </c>
@@ -5172,7 +5171,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>1271</v>
       </c>
@@ -5220,7 +5219,7 @@
         <v>*</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>1289</v>
       </c>
@@ -5268,7 +5267,7 @@
         <v>*</v>
       </c>
     </row>
-    <row r="6" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>72</v>
       </c>
@@ -5316,7 +5315,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>118</v>
       </c>
@@ -5364,7 +5363,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
         <v>124</v>
       </c>
@@ -5412,7 +5411,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
         <v>174</v>
       </c>
@@ -5460,7 +5459,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
         <v>180</v>
       </c>
@@ -5508,7 +5507,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
         <v>232</v>
       </c>
@@ -5556,7 +5555,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
         <v>240</v>
       </c>
@@ -5604,7 +5603,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
         <v>253</v>
       </c>
@@ -5652,7 +5651,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
         <v>289</v>
       </c>
@@ -5700,7 +5699,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
         <v>294</v>
       </c>
@@ -5748,7 +5747,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
         <v>341</v>
       </c>
@@ -5796,7 +5795,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
         <v>350</v>
       </c>
@@ -5844,7 +5843,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
         <v>353</v>
       </c>
@@ -5892,7 +5891,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
         <v>410</v>
       </c>
@@ -5940,7 +5939,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
         <v>431</v>
       </c>
@@ -5988,7 +5987,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
         <v>434</v>
       </c>
@@ -6036,7 +6035,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
         <v>444</v>
       </c>
@@ -6084,7 +6083,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
         <v>510</v>
       </c>
@@ -6132,7 +6131,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
         <v>528</v>
       </c>
@@ -6180,7 +6179,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
         <v>581</v>
       </c>
@@ -6228,7 +6227,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A26" s="1" t="s">
         <v>590</v>
       </c>
@@ -6276,7 +6275,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A27" s="1" t="s">
         <v>593</v>
       </c>
@@ -6324,7 +6323,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A28" s="1" t="s">
         <v>599</v>
       </c>
@@ -6372,7 +6371,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A29" s="1" t="s">
         <v>602</v>
       </c>
@@ -6420,7 +6419,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A30" s="1" t="s">
         <v>673</v>
       </c>
@@ -6468,7 +6467,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A31" s="1" t="s">
         <v>697</v>
       </c>
@@ -6516,7 +6515,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A32" s="1" t="s">
         <v>700</v>
       </c>
@@ -6564,7 +6563,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A33" s="1" t="s">
         <v>756</v>
       </c>
@@ -6612,7 +6611,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A34" s="1" t="s">
         <v>759</v>
       </c>
@@ -6660,7 +6659,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A35" s="1" t="s">
         <v>799</v>
       </c>
@@ -6708,7 +6707,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A36" s="1" t="s">
         <v>805</v>
       </c>
@@ -6756,7 +6755,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A37" s="1" t="s">
         <v>831</v>
       </c>
@@ -6804,7 +6803,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A38" s="1" t="s">
         <v>837</v>
       </c>
@@ -6852,7 +6851,7 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A39" s="1" t="s">
         <v>889</v>
       </c>
@@ -6900,7 +6899,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A40" s="1" t="s">
         <v>915</v>
       </c>
@@ -6948,7 +6947,7 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A41" s="1" t="s">
         <v>971</v>
       </c>
@@ -6996,7 +6995,7 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A42" s="1" t="s">
         <v>1014</v>
       </c>
@@ -7044,7 +7043,7 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A43" s="1" t="s">
         <v>1035</v>
       </c>
@@ -7092,7 +7091,7 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A44" s="1" t="s">
         <v>1058</v>
       </c>
@@ -7140,7 +7139,7 @@
         <v/>
       </c>
     </row>
-    <row r="45" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A45" s="1" t="s">
         <v>1085</v>
       </c>
@@ -7188,7 +7187,7 @@
         <v/>
       </c>
     </row>
-    <row r="46" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A46" s="1" t="s">
         <v>1126</v>
       </c>
@@ -7236,7 +7235,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A47" s="1" t="s">
         <v>1172</v>
       </c>
@@ -7284,7 +7283,7 @@
         <v/>
       </c>
     </row>
-    <row r="48" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A48" s="1" t="s">
         <v>1202</v>
       </c>
@@ -7332,7 +7331,7 @@
         <v/>
       </c>
     </row>
-    <row r="49" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A49" s="1" t="s">
         <v>1213</v>
       </c>
@@ -7380,7 +7379,7 @@
         <v/>
       </c>
     </row>
-    <row r="50" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A50" s="1" t="s">
         <v>1236</v>
       </c>
@@ -7428,7 +7427,7 @@
         <v/>
       </c>
     </row>
-    <row r="51" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A51" s="1" t="s">
         <v>886</v>
       </c>
@@ -7476,7 +7475,7 @@
         <v/>
       </c>
     </row>
-    <row r="52" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A52" s="1" t="s">
         <v>250</v>
       </c>
@@ -7524,7 +7523,7 @@
         <v/>
       </c>
     </row>
-    <row r="53" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A53" s="1" t="s">
         <v>605</v>
       </c>
@@ -7572,7 +7571,7 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A54" s="1" t="s">
         <v>333</v>
       </c>
@@ -7620,7 +7619,7 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A55" s="1" t="s">
         <v>694</v>
       </c>
@@ -7668,7 +7667,7 @@
         <v/>
       </c>
     </row>
-    <row r="56" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A56" s="1" t="s">
         <v>860</v>
       </c>
@@ -7716,7 +7715,7 @@
         <v/>
       </c>
     </row>
-    <row r="57" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A57" s="1" t="s">
         <v>1036</v>
       </c>
@@ -7764,7 +7763,7 @@
         <v/>
       </c>
     </row>
-    <row r="58" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A58" s="1" t="s">
         <v>112</v>
       </c>
@@ -7812,7 +7811,7 @@
         <v/>
       </c>
     </row>
-    <row r="59" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A59" s="1" t="s">
         <v>437</v>
       </c>
@@ -7860,7 +7859,7 @@
         <v/>
       </c>
     </row>
-    <row r="60" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A60" s="1" t="s">
         <v>596</v>
       </c>
@@ -7908,7 +7907,7 @@
         <v/>
       </c>
     </row>
-    <row r="61" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A61" s="1" t="s">
         <v>1177</v>
       </c>
@@ -7956,7 +7955,7 @@
         <v/>
       </c>
     </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A62" s="1" t="s">
         <v>1308</v>
       </c>
@@ -8004,7 +8003,7 @@
         <v>*</v>
       </c>
     </row>
-    <row r="63" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A63" s="1" t="s">
         <v>63</v>
       </c>
@@ -8052,7 +8051,7 @@
         <v/>
       </c>
     </row>
-    <row r="64" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A64" s="1" t="s">
         <v>66</v>
       </c>
@@ -8106,7 +8105,7 @@
         <v/>
       </c>
     </row>
-    <row r="65" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A65" s="1" t="s">
         <v>83</v>
       </c>
@@ -8154,7 +8153,7 @@
         <v/>
       </c>
     </row>
-    <row r="66" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A66" s="1" t="s">
         <v>169</v>
       </c>
@@ -8202,7 +8201,7 @@
         <v/>
       </c>
     </row>
-    <row r="67" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A67" s="1" t="s">
         <v>359</v>
       </c>
@@ -8250,7 +8249,7 @@
         <v/>
       </c>
     </row>
-    <row r="68" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A68" s="1" t="s">
         <v>421</v>
       </c>
@@ -8298,7 +8297,7 @@
         <v/>
       </c>
     </row>
-    <row r="69" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A69" s="1" t="s">
         <v>522</v>
       </c>
@@ -8346,7 +8345,7 @@
         <v/>
       </c>
     </row>
-    <row r="70" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A70" s="1" t="s">
         <v>89</v>
       </c>
@@ -8394,7 +8393,7 @@
         <v/>
       </c>
     </row>
-    <row r="71" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A71" s="1" t="s">
         <v>131</v>
       </c>
@@ -8442,7 +8441,7 @@
         <v/>
       </c>
     </row>
-    <row r="72" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A72" s="1" t="s">
         <v>304</v>
       </c>
@@ -8490,7 +8489,7 @@
         <v/>
       </c>
     </row>
-    <row r="73" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A73" s="1" t="s">
         <v>516</v>
       </c>
@@ -8538,7 +8537,7 @@
         <v/>
       </c>
     </row>
-    <row r="74" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A74" s="1" t="s">
         <v>38</v>
       </c>
@@ -8586,7 +8585,7 @@
         <v/>
       </c>
     </row>
-    <row r="75" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A75" s="1" t="s">
         <v>107</v>
       </c>
@@ -8634,7 +8633,7 @@
         <v/>
       </c>
     </row>
-    <row r="76" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A76" s="1" t="s">
         <v>137</v>
       </c>
@@ -8682,7 +8681,7 @@
         <v/>
       </c>
     </row>
-    <row r="77" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A77" s="1" t="s">
         <v>356</v>
       </c>
@@ -8730,7 +8729,7 @@
         <v/>
       </c>
     </row>
-    <row r="78" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A78" s="1" t="s">
         <v>441</v>
       </c>
@@ -8778,7 +8777,7 @@
         <v/>
       </c>
     </row>
-    <row r="79" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A79" s="1" t="s">
         <v>513</v>
       </c>
@@ -8826,7 +8825,7 @@
         <v/>
       </c>
     </row>
-    <row r="80" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A80" s="1" t="s">
         <v>683</v>
       </c>
@@ -8874,7 +8873,7 @@
         <v/>
       </c>
     </row>
-    <row r="81" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A81" s="1" t="s">
         <v>802</v>
       </c>
@@ -8922,7 +8921,7 @@
         <v/>
       </c>
     </row>
-    <row r="82" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A82" s="1" t="s">
         <v>834</v>
       </c>
@@ -8970,7 +8969,7 @@
         <v/>
       </c>
     </row>
-    <row r="83" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A83" s="1" t="s">
         <v>1030</v>
       </c>
@@ -9018,7 +9017,7 @@
         <v/>
       </c>
     </row>
-    <row r="84" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A84" s="1" t="s">
         <v>1129</v>
       </c>
@@ -9066,7 +9065,7 @@
         <v/>
       </c>
     </row>
-    <row r="85" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A85" s="1" t="s">
         <v>369</v>
       </c>
@@ -9114,7 +9113,7 @@
         <v/>
       </c>
     </row>
-    <row r="86" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A86" s="1" t="s">
         <v>745</v>
       </c>
@@ -9162,7 +9161,7 @@
         <v/>
       </c>
     </row>
-    <row r="87" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A87" s="1" t="s">
         <v>750</v>
       </c>
@@ -9210,7 +9209,7 @@
         <v/>
       </c>
     </row>
-    <row r="88" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A88" s="1" t="s">
         <v>762</v>
       </c>
@@ -9258,7 +9257,7 @@
         <v/>
       </c>
     </row>
-    <row r="89" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A89" s="1" t="s">
         <v>177</v>
       </c>
@@ -9306,7 +9305,7 @@
         <v/>
       </c>
     </row>
-    <row r="90" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A90" s="1" t="s">
         <v>183</v>
       </c>
@@ -9354,7 +9353,7 @@
         <v/>
       </c>
     </row>
-    <row r="91" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A91" s="1" t="s">
         <v>186</v>
       </c>
@@ -9402,7 +9401,7 @@
         <v/>
       </c>
     </row>
-    <row r="92" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A92" s="1" t="s">
         <v>587</v>
       </c>
@@ -9450,7 +9449,7 @@
         <v/>
       </c>
     </row>
-    <row r="93" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A93" s="1" t="s">
         <v>668</v>
       </c>
@@ -9498,7 +9497,7 @@
         <v/>
       </c>
     </row>
-    <row r="94" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A94" s="1" t="s">
         <v>706</v>
       </c>
@@ -9546,7 +9545,7 @@
         <v/>
       </c>
     </row>
-    <row r="95" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A95" s="1" t="s">
         <v>1180</v>
       </c>
@@ -9594,7 +9593,7 @@
         <v/>
       </c>
     </row>
-    <row r="96" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A96" s="1" t="s">
         <v>1239</v>
       </c>
@@ -9642,7 +9641,7 @@
         <v/>
       </c>
     </row>
-    <row r="97" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A97" s="1" t="s">
         <v>826</v>
       </c>
@@ -9690,7 +9689,7 @@
         <v/>
       </c>
     </row>
-    <row r="98" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A98" s="1" t="s">
         <v>1089</v>
       </c>
@@ -9738,7 +9737,7 @@
         <v/>
       </c>
     </row>
-    <row r="99" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A99" s="1" t="s">
         <v>1314</v>
       </c>
@@ -9786,7 +9785,7 @@
         <v>*</v>
       </c>
     </row>
-    <row r="100" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A100" s="1" t="s">
         <v>115</v>
       </c>
@@ -9834,7 +9833,7 @@
         <v/>
       </c>
     </row>
-    <row r="101" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A101" s="1" t="s">
         <v>372</v>
       </c>
@@ -9882,7 +9881,7 @@
         <v/>
       </c>
     </row>
-    <row r="102" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A102" s="1" t="s">
         <v>978</v>
       </c>
@@ -9930,7 +9929,7 @@
         <v/>
       </c>
     </row>
-    <row r="103" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A103" s="1" t="s">
         <v>23</v>
       </c>
@@ -9978,7 +9977,7 @@
         <v/>
       </c>
     </row>
-    <row r="104" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A104" s="1" t="s">
         <v>584</v>
       </c>
@@ -10026,7 +10025,7 @@
         <v/>
       </c>
     </row>
-    <row r="105" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A105" s="1" t="s">
         <v>881</v>
       </c>
@@ -10074,7 +10073,7 @@
         <v/>
       </c>
     </row>
-    <row r="106" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A106" s="1" t="s">
         <v>26</v>
       </c>
@@ -10122,7 +10121,7 @@
         <v/>
       </c>
     </row>
-    <row r="107" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A107" s="1" t="s">
         <v>55</v>
       </c>
@@ -10170,7 +10169,7 @@
         <v/>
       </c>
     </row>
-    <row r="108" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A108" s="1" t="s">
         <v>78</v>
       </c>
@@ -10218,7 +10217,7 @@
         <v/>
       </c>
     </row>
-    <row r="109" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A109" s="1" t="s">
         <v>189</v>
       </c>
@@ -10266,7 +10265,7 @@
         <v/>
       </c>
     </row>
-    <row r="110" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A110" s="1" t="s">
         <v>247</v>
       </c>
@@ -10314,7 +10313,7 @@
         <v/>
       </c>
     </row>
-    <row r="111" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A111" s="1" t="s">
         <v>256</v>
       </c>
@@ -10362,7 +10361,7 @@
         <v/>
       </c>
     </row>
-    <row r="112" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A112" s="1" t="s">
         <v>259</v>
       </c>
@@ -10410,7 +10409,7 @@
         <v/>
       </c>
     </row>
-    <row r="113" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A113" s="1" t="s">
         <v>295</v>
       </c>
@@ -10458,7 +10457,7 @@
         <v/>
       </c>
     </row>
-    <row r="114" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A114" s="1" t="s">
         <v>344</v>
       </c>
@@ -10506,7 +10505,7 @@
         <v/>
       </c>
     </row>
-    <row r="115" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A115" s="1" t="s">
         <v>363</v>
       </c>
@@ -10554,7 +10553,7 @@
         <v/>
       </c>
     </row>
-    <row r="116" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A116" s="1" t="s">
         <v>415</v>
       </c>
@@ -10602,7 +10601,7 @@
         <v/>
       </c>
     </row>
-    <row r="117" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A117" s="1" t="s">
         <v>424</v>
       </c>
@@ -10650,7 +10649,7 @@
         <v/>
       </c>
     </row>
-    <row r="118" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A118" s="1" t="s">
         <v>455</v>
       </c>
@@ -10698,7 +10697,7 @@
         <v/>
       </c>
     </row>
-    <row r="119" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A119" s="1" t="s">
         <v>709</v>
       </c>
@@ -10746,7 +10745,7 @@
         <v/>
       </c>
     </row>
-    <row r="120" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A120" s="1" t="s">
         <v>712</v>
       </c>
@@ -10794,7 +10793,7 @@
         <v/>
       </c>
     </row>
-    <row r="121" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A121" s="1" t="s">
         <v>794</v>
       </c>
@@ -10842,7 +10841,7 @@
         <v/>
       </c>
     </row>
-    <row r="122" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A122" s="1" t="s">
         <v>811</v>
       </c>
@@ -10890,7 +10889,7 @@
         <v/>
       </c>
     </row>
-    <row r="123" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A123" s="1" t="s">
         <v>855</v>
       </c>
@@ -10938,7 +10937,7 @@
         <v/>
       </c>
     </row>
-    <row r="124" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A124" s="1" t="s">
         <v>949</v>
       </c>
@@ -10986,7 +10985,7 @@
         <v/>
       </c>
     </row>
-    <row r="125" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A125" s="1" t="s">
         <v>1039</v>
       </c>
@@ -11034,7 +11033,7 @@
         <v/>
       </c>
     </row>
-    <row r="126" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A126" s="1" t="s">
         <v>75</v>
       </c>
@@ -11082,7 +11081,7 @@
         <v/>
       </c>
     </row>
-    <row r="127" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A127" s="1" t="s">
         <v>81</v>
       </c>
@@ -11130,7 +11129,7 @@
         <v/>
       </c>
     </row>
-    <row r="128" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A128" s="1" t="s">
         <v>86</v>
       </c>
@@ -11178,7 +11177,7 @@
         <v/>
       </c>
     </row>
-    <row r="129" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A129" s="1" t="s">
         <v>347</v>
       </c>
@@ -11226,7 +11225,7 @@
         <v/>
       </c>
     </row>
-    <row r="130" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A130" s="1" t="s">
         <v>808</v>
       </c>
@@ -11274,7 +11273,7 @@
         <v/>
       </c>
     </row>
-    <row r="131" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A131" s="1" t="s">
         <v>1266</v>
       </c>
@@ -11322,7 +11321,7 @@
         <v>*</v>
       </c>
     </row>
-    <row r="132" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A132" s="1" t="s">
         <v>1276</v>
       </c>
@@ -11370,7 +11369,7 @@
         <v>*</v>
       </c>
     </row>
-    <row r="133" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A133" s="1" t="s">
         <v>134</v>
       </c>
@@ -11418,7 +11417,7 @@
         <v/>
       </c>
     </row>
-    <row r="134" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A134" s="1" t="s">
         <v>1484</v>
       </c>
@@ -11466,7 +11465,7 @@
         <v>*</v>
       </c>
     </row>
-    <row r="135" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A135" s="1" t="s">
         <v>1095</v>
       </c>
@@ -11514,7 +11513,7 @@
         <v/>
       </c>
     </row>
-    <row r="136" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A136" s="1" t="s">
         <v>451</v>
       </c>
@@ -11562,7 +11561,7 @@
         <v/>
       </c>
     </row>
-    <row r="137" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A137" s="1" t="s">
         <v>301</v>
       </c>
@@ -11610,7 +11609,7 @@
         <v/>
       </c>
     </row>
-    <row r="138" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A138" s="1" t="s">
         <v>505</v>
       </c>
@@ -11658,7 +11657,7 @@
         <v/>
       </c>
     </row>
-    <row r="139" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A139" s="1" t="s">
         <v>680</v>
       </c>
@@ -11706,7 +11705,7 @@
         <v/>
       </c>
     </row>
-    <row r="140" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A140" s="1" t="s">
         <v>943</v>
       </c>
@@ -11754,7 +11753,7 @@
         <v/>
       </c>
     </row>
-    <row r="141" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A141" s="1" t="s">
         <v>918</v>
       </c>
@@ -11802,7 +11801,7 @@
         <v/>
       </c>
     </row>
-    <row r="142" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A142" s="1" t="s">
         <v>921</v>
       </c>
@@ -11850,7 +11849,7 @@
         <v/>
       </c>
     </row>
-    <row r="143" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A143" s="1" t="s">
         <v>930</v>
       </c>
@@ -11898,7 +11897,7 @@
         <v/>
       </c>
     </row>
-    <row r="144" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A144" s="1" t="s">
         <v>237</v>
       </c>
@@ -11946,7 +11945,7 @@
         <v/>
       </c>
     </row>
-    <row r="145" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A145" s="1" t="s">
         <v>243</v>
       </c>
@@ -11994,7 +11993,7 @@
         <v/>
       </c>
     </row>
-    <row r="146" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A146" s="1" t="s">
         <v>1005</v>
       </c>
@@ -12042,7 +12041,7 @@
         <v/>
       </c>
     </row>
-    <row r="147" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A147" s="1" t="s">
         <v>1010</v>
       </c>
@@ -12090,7 +12089,7 @@
         <v/>
       </c>
     </row>
-    <row r="148" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A148" s="1" t="s">
         <v>1045</v>
       </c>
@@ -12138,7 +12137,7 @@
         <v/>
       </c>
     </row>
-    <row r="149" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A149" s="1" t="s">
         <v>1049</v>
       </c>
@@ -12186,7 +12185,7 @@
         <v/>
       </c>
     </row>
-    <row r="150" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A150" s="1" t="s">
         <v>1052</v>
       </c>
@@ -12234,7 +12233,7 @@
         <v/>
       </c>
     </row>
-    <row r="151" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A151" s="1" t="s">
         <v>703</v>
       </c>
@@ -12282,7 +12281,7 @@
         <v/>
       </c>
     </row>
-    <row r="152" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A152" s="1" t="s">
         <v>753</v>
       </c>
@@ -12330,7 +12329,7 @@
         <v/>
       </c>
     </row>
-    <row r="153" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A153" s="1" t="s">
         <v>953</v>
       </c>
@@ -12378,7 +12377,7 @@
         <v/>
       </c>
     </row>
-    <row r="154" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A154" s="1" t="s">
         <v>418</v>
       </c>
@@ -12426,7 +12425,7 @@
         <v/>
       </c>
     </row>
-    <row r="155" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A155" s="1" t="s">
         <v>427</v>
       </c>
@@ -12474,7 +12473,7 @@
         <v/>
       </c>
     </row>
-    <row r="156" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A156" s="1" t="s">
         <v>448</v>
       </c>
@@ -12522,7 +12521,7 @@
         <v/>
       </c>
     </row>
-    <row r="157" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A157" s="1" t="s">
         <v>519</v>
       </c>
@@ -12570,7 +12569,7 @@
         <v/>
       </c>
     </row>
-    <row r="158" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A158" s="1" t="s">
         <v>525</v>
       </c>
@@ -12618,7 +12617,7 @@
         <v/>
       </c>
     </row>
-    <row r="159" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A159" s="1" t="s">
         <v>576</v>
       </c>
@@ -12666,7 +12665,7 @@
         <v/>
       </c>
     </row>
-    <row r="160" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A160" s="1" t="s">
         <v>1139</v>
       </c>
@@ -12714,7 +12713,7 @@
         <v/>
       </c>
     </row>
-    <row r="161" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A161" s="1" t="s">
         <v>1092</v>
       </c>
@@ -12762,7 +12761,7 @@
         <v/>
       </c>
     </row>
-    <row r="162" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A162" s="1" t="s">
         <v>1183</v>
       </c>
@@ -12810,7 +12809,7 @@
         <v/>
       </c>
     </row>
-    <row r="163" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A163" s="1" t="s">
         <v>20</v>
       </c>
@@ -12858,7 +12857,7 @@
         <v/>
       </c>
     </row>
-    <row r="164" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A164" s="1" t="s">
         <v>1132</v>
       </c>
@@ -12906,7 +12905,7 @@
         <v/>
       </c>
     </row>
-    <row r="165" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A165" s="1" t="s">
         <v>1135</v>
       </c>
@@ -12954,7 +12953,7 @@
         <v/>
       </c>
     </row>
-    <row r="166" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A166" s="1" t="s">
         <v>29</v>
       </c>
@@ -13002,7 +13001,7 @@
         <v/>
       </c>
     </row>
-    <row r="167" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A167" s="1" t="s">
         <v>60</v>
       </c>
@@ -13050,7 +13049,7 @@
         <v/>
       </c>
     </row>
-    <row r="168" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A168" s="1" t="s">
         <v>121</v>
       </c>
@@ -13098,7 +13097,7 @@
         <v/>
       </c>
     </row>
-    <row r="169" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A169" s="1" t="s">
         <v>1299</v>
       </c>
@@ -13146,7 +13145,7 @@
         <v>*</v>
       </c>
     </row>
-    <row r="170" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A170" s="1" t="s">
         <v>366</v>
       </c>
@@ -13194,7 +13193,7 @@
         <v/>
       </c>
     </row>
-    <row r="171" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A171" s="1" t="s">
         <v>532</v>
       </c>
@@ -13242,7 +13241,7 @@
         <v/>
       </c>
     </row>
-    <row r="172" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A172" s="1" t="s">
         <v>677</v>
       </c>
@@ -13290,7 +13289,7 @@
         <v/>
       </c>
     </row>
-    <row r="173" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A173" s="1" t="s">
         <v>687</v>
       </c>
@@ -13338,7 +13337,7 @@
         <v/>
       </c>
     </row>
-    <row r="174" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A174" s="1" t="s">
         <v>974</v>
       </c>
@@ -13386,7 +13385,7 @@
         <v/>
       </c>
     </row>
-    <row r="175" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A175" s="1" t="s">
         <v>982</v>
       </c>
@@ -13434,7 +13433,7 @@
         <v/>
       </c>
     </row>
-    <row r="176" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A176" s="1" t="s">
         <v>990</v>
       </c>
@@ -13482,7 +13481,7 @@
         <v/>
       </c>
     </row>
-    <row r="177" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A177" s="1" t="s">
         <v>994</v>
       </c>
@@ -13530,7 +13529,7 @@
         <v/>
       </c>
     </row>
-    <row r="178" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A178" s="1" t="s">
         <v>1055</v>
       </c>
@@ -13578,7 +13577,7 @@
         <v/>
       </c>
     </row>
-    <row r="179" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A179" s="1" t="s">
         <v>1226</v>
       </c>
@@ -13626,7 +13625,7 @@
         <v/>
       </c>
     </row>
-    <row r="180" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A180" s="1" t="s">
         <v>1230</v>
       </c>
@@ -13674,7 +13673,7 @@
         <v/>
       </c>
     </row>
-    <row r="181" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A181" s="1" t="s">
         <v>35</v>
       </c>
@@ -13722,7 +13721,7 @@
         <v/>
       </c>
     </row>
-    <row r="182" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A182" s="1" t="s">
         <v>127</v>
       </c>
@@ -13770,7 +13769,7 @@
         <v/>
       </c>
     </row>
-    <row r="183" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A183" s="1" t="s">
         <v>298</v>
       </c>
@@ -13818,7 +13817,7 @@
         <v/>
       </c>
     </row>
-    <row r="184" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A184" s="1" t="s">
         <v>307</v>
       </c>
@@ -13866,7 +13865,7 @@
         <v/>
       </c>
     </row>
-    <row r="185" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A185" s="1" t="s">
         <v>310</v>
       </c>
@@ -13914,7 +13913,7 @@
         <v/>
       </c>
     </row>
-    <row r="186" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A186" s="1" t="s">
         <v>338</v>
       </c>
@@ -13962,7 +13961,7 @@
         <v/>
       </c>
     </row>
-    <row r="187" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A187" s="1" t="s">
         <v>529</v>
       </c>
@@ -14010,7 +14009,7 @@
         <v/>
       </c>
     </row>
-    <row r="188" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A188" s="1" t="s">
         <v>674</v>
       </c>
@@ -14058,7 +14057,7 @@
         <v/>
       </c>
     </row>
-    <row r="189" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A189" s="1" t="s">
         <v>691</v>
       </c>
@@ -14106,7 +14105,7 @@
         <v/>
       </c>
     </row>
-    <row r="190" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A190" s="1" t="s">
         <v>864</v>
       </c>
@@ -14154,7 +14153,7 @@
         <v/>
       </c>
     </row>
-    <row r="191" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A191" s="1" t="s">
         <v>867</v>
       </c>
@@ -14202,7 +14201,7 @@
         <v/>
       </c>
     </row>
-    <row r="192" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A192" s="1" t="s">
         <v>924</v>
       </c>
@@ -14256,7 +14255,7 @@
         <v/>
       </c>
     </row>
-    <row r="193" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A193" s="1" t="s">
         <v>986</v>
       </c>
@@ -14304,7 +14303,7 @@
         <v/>
       </c>
     </row>
-    <row r="194" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A194" s="1" t="s">
         <v>1210</v>
       </c>
@@ -14352,7 +14351,7 @@
         <v/>
       </c>
     </row>
-    <row r="195" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A195" s="1" t="s">
         <v>1233</v>
       </c>
@@ -14400,7 +14399,7 @@
         <v/>
       </c>
     </row>
-    <row r="196" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A196" s="1" t="s">
         <v>1080</v>
       </c>
@@ -14448,7 +14447,7 @@
         <v/>
       </c>
     </row>
-    <row r="197" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A197" s="1" t="s">
         <v>1098</v>
       </c>
@@ -14496,7 +14495,7 @@
         <v/>
       </c>
     </row>
-    <row r="198" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A198" s="1" t="s">
         <v>140</v>
       </c>
@@ -14544,7 +14543,7 @@
         <v/>
       </c>
     </row>
-    <row r="199" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A199" s="1" t="s">
         <v>1302</v>
       </c>
@@ -14592,7 +14591,7 @@
         <v>*</v>
       </c>
     </row>
-    <row r="200" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A200" s="1" t="s">
         <v>1317</v>
       </c>
@@ -14640,7 +14639,7 @@
         <v>*</v>
       </c>
     </row>
-    <row r="201" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A201" s="1" t="s">
         <v>192</v>
       </c>
@@ -14688,7 +14687,7 @@
         <v/>
       </c>
     </row>
-    <row r="202" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A202" s="1" t="s">
         <v>201</v>
       </c>
@@ -14736,7 +14735,7 @@
         <v/>
       </c>
     </row>
-    <row r="203" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A203" s="1" t="s">
         <v>204</v>
       </c>
@@ -14784,7 +14783,7 @@
         <v/>
       </c>
     </row>
-    <row r="204" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A204" s="1" t="s">
         <v>313</v>
       </c>
@@ -14832,7 +14831,7 @@
         <v/>
       </c>
     </row>
-    <row r="205" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A205" s="1" t="s">
         <v>376</v>
       </c>
@@ -14880,7 +14879,7 @@
         <v/>
       </c>
     </row>
-    <row r="206" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A206" s="1" t="s">
         <v>458</v>
       </c>
@@ -14928,7 +14927,7 @@
         <v/>
       </c>
     </row>
-    <row r="207" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A207" s="1" t="s">
         <v>611</v>
       </c>
@@ -14976,7 +14975,7 @@
         <v/>
       </c>
     </row>
-    <row r="208" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A208" s="1" t="s">
         <v>614</v>
       </c>
@@ -15024,7 +15023,7 @@
         <v/>
       </c>
     </row>
-    <row r="209" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A209" s="1" t="s">
         <v>715</v>
       </c>
@@ -15072,7 +15071,7 @@
         <v/>
       </c>
     </row>
-    <row r="210" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A210" s="1" t="s">
         <v>838</v>
       </c>
@@ -15120,7 +15119,7 @@
         <v/>
       </c>
     </row>
-    <row r="211" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A211" s="1" t="s">
         <v>892</v>
       </c>
@@ -15168,7 +15167,7 @@
         <v/>
       </c>
     </row>
-    <row r="212" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A212" s="1" t="s">
         <v>895</v>
       </c>
@@ -15216,7 +15215,7 @@
         <v/>
       </c>
     </row>
-    <row r="213" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A213" s="1" t="s">
         <v>898</v>
       </c>
@@ -15264,7 +15263,7 @@
         <v/>
       </c>
     </row>
-    <row r="214" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A214" s="1" t="s">
         <v>1102</v>
       </c>
@@ -15312,7 +15311,7 @@
         <v/>
       </c>
     </row>
-    <row r="215" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A215" s="1" t="s">
         <v>1142</v>
       </c>
@@ -15360,7 +15359,7 @@
         <v/>
       </c>
     </row>
-    <row r="216" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A216" s="1" t="s">
         <v>1241</v>
       </c>
@@ -15408,7 +15407,7 @@
         <v/>
       </c>
     </row>
-    <row r="217" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A217" s="1" t="s">
         <v>195</v>
       </c>
@@ -15456,7 +15455,7 @@
         <v/>
       </c>
     </row>
-    <row r="218" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A218" s="1" t="s">
         <v>198</v>
       </c>
@@ -15504,7 +15503,7 @@
         <v/>
       </c>
     </row>
-    <row r="219" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A219" s="1" t="s">
         <v>262</v>
       </c>
@@ -15552,7 +15551,7 @@
         <v/>
       </c>
     </row>
-    <row r="220" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A220" s="1" t="s">
         <v>265</v>
       </c>
@@ -15600,7 +15599,7 @@
         <v/>
       </c>
     </row>
-    <row r="221" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A221" s="1" t="s">
         <v>269</v>
       </c>
@@ -15648,7 +15647,7 @@
         <v/>
       </c>
     </row>
-    <row r="222" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A222" s="1" t="s">
         <v>379</v>
       </c>
@@ -15696,7 +15695,7 @@
         <v/>
       </c>
     </row>
-    <row r="223" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A223" s="1" t="s">
         <v>608</v>
       </c>
@@ -15744,7 +15743,7 @@
         <v/>
       </c>
     </row>
-    <row r="224" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A224" s="1" t="s">
         <v>720</v>
       </c>
@@ -15792,7 +15791,7 @@
         <v/>
       </c>
     </row>
-    <row r="225" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A225" s="1" t="s">
         <v>765</v>
       </c>
@@ -15840,7 +15839,7 @@
         <v/>
       </c>
     </row>
-    <row r="226" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A226" s="1" t="s">
         <v>842</v>
       </c>
@@ -15888,7 +15887,7 @@
         <v/>
       </c>
     </row>
-    <row r="227" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A227" s="1" t="s">
         <v>870</v>
       </c>
@@ -15936,7 +15935,7 @@
         <v/>
       </c>
     </row>
-    <row r="228" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A228" s="1" t="s">
         <v>1059</v>
       </c>
@@ -15984,7 +15983,7 @@
         <v/>
       </c>
     </row>
-    <row r="229" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A229" s="1" t="s">
         <v>1175</v>
       </c>
@@ -16032,7 +16031,7 @@
         <v/>
       </c>
     </row>
-    <row r="230" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A230" s="1" t="s">
         <v>1186</v>
       </c>
@@ -16080,7 +16079,7 @@
         <v/>
       </c>
     </row>
-    <row r="231" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A231" s="1" t="s">
         <v>316</v>
       </c>
@@ -16128,7 +16127,7 @@
         <v/>
       </c>
     </row>
-    <row r="232" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A232" s="1" t="s">
         <v>617</v>
       </c>
@@ -16176,7 +16175,7 @@
         <v/>
       </c>
     </row>
-    <row r="233" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A233" s="1" t="s">
         <v>846</v>
       </c>
@@ -16224,7 +16223,7 @@
         <v/>
       </c>
     </row>
-    <row r="234" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A234" s="1" t="s">
         <v>849</v>
       </c>
@@ -16272,7 +16271,7 @@
         <v/>
       </c>
     </row>
-    <row r="235" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A235" s="1" t="s">
         <v>1106</v>
       </c>
@@ -16320,7 +16319,7 @@
         <v/>
       </c>
     </row>
-    <row r="236" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A236" s="1" t="s">
         <v>814</v>
       </c>
@@ -16368,7 +16367,7 @@
         <v/>
       </c>
     </row>
-    <row r="237" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A237" s="1" t="s">
         <v>817</v>
       </c>
@@ -16416,7 +16415,7 @@
         <v/>
       </c>
     </row>
-    <row r="238" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A238" s="1" t="s">
         <v>901</v>
       </c>
@@ -16464,7 +16463,7 @@
         <v/>
       </c>
     </row>
-    <row r="239" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A239" s="1" t="s">
         <v>904</v>
       </c>
@@ -16512,7 +16511,7 @@
         <v/>
       </c>
     </row>
-    <row r="240" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A240" s="1" t="s">
         <v>907</v>
       </c>
@@ -16560,7 +16559,7 @@
         <v/>
       </c>
     </row>
-    <row r="241" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A241" s="1" t="s">
         <v>1062</v>
       </c>
@@ -16608,7 +16607,7 @@
         <v/>
       </c>
     </row>
-    <row r="242" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A242" s="1" t="s">
         <v>1145</v>
       </c>
@@ -16656,7 +16655,7 @@
         <v/>
       </c>
     </row>
-    <row r="243" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A243" s="1" t="s">
         <v>92</v>
       </c>
@@ -16704,7 +16703,7 @@
         <v/>
       </c>
     </row>
-    <row r="244" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A244" s="1" t="s">
         <v>143</v>
       </c>
@@ -16752,7 +16751,7 @@
         <v/>
       </c>
     </row>
-    <row r="245" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A245" s="1" t="s">
         <v>147</v>
       </c>
@@ -16800,7 +16799,7 @@
         <v/>
       </c>
     </row>
-    <row r="246" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A246" s="1" t="s">
         <v>207</v>
       </c>
@@ -16851,7 +16850,7 @@
         <v>*</v>
       </c>
     </row>
-    <row r="247" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A247" s="1" t="s">
         <v>210</v>
       </c>
@@ -16902,7 +16901,7 @@
         <v>*</v>
       </c>
     </row>
-    <row r="248" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A248" s="1" t="s">
         <v>319</v>
       </c>
@@ -16953,7 +16952,7 @@
         <v>*</v>
       </c>
     </row>
-    <row r="249" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A249" s="1" t="s">
         <v>461</v>
       </c>
@@ -17004,7 +17003,7 @@
         <v>*</v>
       </c>
     </row>
-    <row r="250" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A250" s="1" t="s">
         <v>620</v>
       </c>
@@ -17055,7 +17054,7 @@
         <v>*</v>
       </c>
     </row>
-    <row r="251" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A251" s="1" t="s">
         <v>933</v>
       </c>
@@ -17106,7 +17105,7 @@
         <v>*</v>
       </c>
     </row>
-    <row r="252" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A252" s="1" t="s">
         <v>936</v>
       </c>
@@ -17157,7 +17156,7 @@
         <v>*</v>
       </c>
     </row>
-    <row r="253" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A253" s="1" t="s">
         <v>998</v>
       </c>
@@ -17208,7 +17207,7 @@
         <v>*</v>
       </c>
     </row>
-    <row r="254" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A254" s="1" t="s">
         <v>150</v>
       </c>
@@ -17259,7 +17258,7 @@
         <v>*</v>
       </c>
     </row>
-    <row r="255" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A255" s="1" t="s">
         <v>272</v>
       </c>
@@ -17310,7 +17309,7 @@
         <v>*</v>
       </c>
     </row>
-    <row r="256" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A256" s="1" t="s">
         <v>275</v>
       </c>
@@ -17361,7 +17360,7 @@
         <v>*</v>
       </c>
     </row>
-    <row r="257" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A257" s="1" t="s">
         <v>381</v>
       </c>
@@ -17412,7 +17411,7 @@
         <v>*</v>
       </c>
     </row>
-    <row r="258" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A258" s="1" t="s">
         <v>535</v>
       </c>
@@ -17463,7 +17462,7 @@
         <v>*</v>
       </c>
     </row>
-    <row r="259" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A259" s="1" t="s">
         <v>723</v>
       </c>
@@ -17514,7 +17513,7 @@
         <v>*</v>
       </c>
     </row>
-    <row r="260" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A260" s="1" t="s">
         <v>1026</v>
       </c>
@@ -17565,7 +17564,7 @@
         <v>*</v>
       </c>
     </row>
-    <row r="261" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A261" s="1" t="s">
         <v>1148</v>
       </c>
@@ -17616,7 +17615,7 @@
         <v>*</v>
       </c>
     </row>
-    <row r="262" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A262" s="1" t="s">
         <v>1155</v>
       </c>
@@ -17667,7 +17666,7 @@
         <v>*</v>
       </c>
     </row>
-    <row r="263" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A263" s="1" t="s">
         <v>1189</v>
       </c>
@@ -17718,7 +17717,7 @@
         <v>*</v>
       </c>
     </row>
-    <row r="264" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A264" s="1" t="s">
         <v>1193</v>
       </c>
@@ -17769,7 +17768,7 @@
         <v>*</v>
       </c>
     </row>
-    <row r="265" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A265" s="1" t="s">
         <v>1205</v>
       </c>
@@ -17817,7 +17816,7 @@
         <v/>
       </c>
     </row>
-    <row r="266" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A266" s="1" t="s">
         <v>95</v>
       </c>
@@ -17868,7 +17867,7 @@
         <v>*</v>
       </c>
     </row>
-    <row r="267" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A267" s="1" t="s">
         <v>98</v>
       </c>
@@ -17919,7 +17918,7 @@
         <v>*</v>
       </c>
     </row>
-    <row r="268" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A268" s="1" t="s">
         <v>101</v>
       </c>
@@ -17970,7 +17969,7 @@
         <v>*</v>
       </c>
     </row>
-    <row r="269" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A269" s="1" t="s">
         <v>104</v>
       </c>
@@ -18021,7 +18020,7 @@
         <v>*</v>
       </c>
     </row>
-    <row r="270" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A270" s="1" t="s">
         <v>153</v>
       </c>
@@ -18072,7 +18071,7 @@
         <v>*</v>
       </c>
     </row>
-    <row r="271" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A271" s="1" t="s">
         <v>213</v>
       </c>
@@ -18123,7 +18122,7 @@
         <v>*</v>
       </c>
     </row>
-    <row r="272" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A272" s="1" t="s">
         <v>216</v>
       </c>
@@ -18174,7 +18173,7 @@
         <v>*</v>
       </c>
     </row>
-    <row r="273" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A273" s="1" t="s">
         <v>464</v>
       </c>
@@ -18225,7 +18224,7 @@
         <v>*</v>
       </c>
     </row>
-    <row r="274" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A274" s="1" t="s">
         <v>467</v>
       </c>
@@ -18276,7 +18275,7 @@
         <v>*</v>
       </c>
     </row>
-    <row r="275" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A275" s="1" t="s">
         <v>726</v>
       </c>
@@ -18327,7 +18326,7 @@
         <v>*</v>
       </c>
     </row>
-    <row r="276" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A276" s="1" t="s">
         <v>1015</v>
       </c>
@@ -18378,7 +18377,7 @@
         <v>*</v>
       </c>
     </row>
-    <row r="277" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A277" s="1" t="s">
         <v>1019</v>
       </c>
@@ -18429,7 +18428,7 @@
         <v>*</v>
       </c>
     </row>
-    <row r="278" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A278" s="1" t="s">
         <v>1022</v>
       </c>
@@ -18480,7 +18479,7 @@
         <v>*</v>
       </c>
     </row>
-    <row r="279" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A279" s="1" t="s">
         <v>1065</v>
       </c>
@@ -18531,7 +18530,7 @@
         <v>*</v>
       </c>
     </row>
-    <row r="280" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A280" s="1" t="s">
         <v>1152</v>
       </c>
@@ -18582,7 +18581,7 @@
         <v>*</v>
       </c>
     </row>
-    <row r="281" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A281" s="1" t="s">
         <v>1196</v>
       </c>
@@ -18633,7 +18632,7 @@
         <v>*</v>
       </c>
     </row>
-    <row r="282" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A282" s="1" t="s">
         <v>1274</v>
       </c>
@@ -18684,7 +18683,7 @@
         <v>*</v>
       </c>
     </row>
-    <row r="283" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A283" s="1" t="s">
         <v>1221</v>
       </c>
@@ -18735,7 +18734,7 @@
         <v>*</v>
       </c>
     </row>
-    <row r="284" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A284" s="1" t="s">
         <v>1068</v>
       </c>
@@ -18786,7 +18785,7 @@
         <v>*</v>
       </c>
     </row>
-    <row r="285" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A285" s="1" t="s">
         <v>219</v>
       </c>
@@ -18837,7 +18836,7 @@
         <v>*</v>
       </c>
     </row>
-    <row r="286" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A286" s="1" t="s">
         <v>470</v>
       </c>
@@ -18888,7 +18887,7 @@
         <v>*</v>
       </c>
     </row>
-    <row r="287" spans="1:18" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A287" s="1" t="s">
         <v>768</v>
       </c>
@@ -18939,7 +18938,7 @@
         <v>*</v>
       </c>
     </row>
-    <row r="288" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A288" s="1" t="s">
         <v>957</v>
       </c>
@@ -18990,7 +18989,7 @@
         <v>*</v>
       </c>
     </row>
-    <row r="289" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A289" s="1" t="s">
         <v>1109</v>
       </c>
@@ -19041,7 +19040,7 @@
         <v>*</v>
       </c>
     </row>
-    <row r="290" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A290" s="1" t="s">
         <v>1244</v>
       </c>
@@ -19092,7 +19091,7 @@
         <v>*</v>
       </c>
     </row>
-    <row r="291" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A291" s="1" t="s">
         <v>1246</v>
       </c>
@@ -19143,7 +19142,7 @@
         <v>*</v>
       </c>
     </row>
-    <row r="292" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A292" s="1" t="s">
         <v>1282</v>
       </c>
@@ -19194,7 +19193,7 @@
         <v>*</v>
       </c>
     </row>
-    <row r="293" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A293" s="1" t="s">
         <v>223</v>
       </c>
@@ -19245,7 +19244,7 @@
         <v>*</v>
       </c>
     </row>
-    <row r="294" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A294" s="1" t="s">
         <v>226</v>
       </c>
@@ -19296,7 +19295,7 @@
         <v>*</v>
       </c>
     </row>
-    <row r="295" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A295" s="1" t="s">
         <v>472</v>
       </c>
@@ -19347,7 +19346,7 @@
         <v>*</v>
       </c>
     </row>
-    <row r="296" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A296" s="1" t="s">
         <v>476</v>
       </c>
@@ -19398,7 +19397,7 @@
         <v>*</v>
       </c>
     </row>
-    <row r="297" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A297" s="1" t="s">
         <v>873</v>
       </c>
@@ -19449,7 +19448,7 @@
         <v>*</v>
       </c>
     </row>
-    <row r="298" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A298" s="1" t="s">
         <v>1214</v>
       </c>
@@ -19500,7 +19499,7 @@
         <v>*</v>
       </c>
     </row>
-    <row r="299" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A299" s="1" t="s">
         <v>1249</v>
       </c>
@@ -19551,7 +19550,7 @@
         <v>*</v>
       </c>
     </row>
-    <row r="300" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A300" s="1" t="s">
         <v>1253</v>
       </c>
@@ -19602,7 +19601,7 @@
         <v>*</v>
       </c>
     </row>
-    <row r="301" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A301" s="1" t="s">
         <v>41</v>
       </c>
@@ -19653,7 +19652,7 @@
         <v>*</v>
       </c>
     </row>
-    <row r="302" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A302" s="1" t="s">
         <v>45</v>
       </c>
@@ -19704,7 +19703,7 @@
         <v>*</v>
       </c>
     </row>
-    <row r="303" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A303" s="1" t="s">
         <v>322</v>
       </c>
@@ -19755,7 +19754,7 @@
         <v>*</v>
       </c>
     </row>
-    <row r="304" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A304" s="1" t="s">
         <v>479</v>
       </c>
@@ -19806,7 +19805,7 @@
         <v>*</v>
       </c>
     </row>
-    <row r="305" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A305" s="1" t="s">
         <v>542</v>
       </c>
@@ -19857,7 +19856,7 @@
         <v>*</v>
       </c>
     </row>
-    <row r="306" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A306" s="1" t="s">
         <v>623</v>
       </c>
@@ -19908,7 +19907,7 @@
         <v>*</v>
       </c>
     </row>
-    <row r="307" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A307" s="1" t="s">
         <v>730</v>
       </c>
@@ -19959,7 +19958,7 @@
         <v>*</v>
       </c>
     </row>
-    <row r="308" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A308" s="1" t="s">
         <v>820</v>
       </c>
@@ -20010,7 +20009,7 @@
         <v>*</v>
       </c>
     </row>
-    <row r="309" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A309" s="1" t="s">
         <v>1002</v>
       </c>
@@ -20061,7 +20060,7 @@
         <v>*</v>
       </c>
     </row>
-    <row r="310" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A310" s="1" t="s">
         <v>1321</v>
       </c>
@@ -20112,7 +20111,7 @@
         <v>*</v>
       </c>
     </row>
-    <row r="311" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A311" s="1" t="s">
         <v>384</v>
       </c>
@@ -20163,7 +20162,7 @@
         <v>*</v>
       </c>
     </row>
-    <row r="312" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A312" s="1" t="s">
         <v>387</v>
       </c>
@@ -20211,7 +20210,7 @@
         <v>*</v>
       </c>
     </row>
-    <row r="313" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A313" s="1" t="s">
         <v>538</v>
       </c>
@@ -20262,7 +20261,7 @@
         <v>*</v>
       </c>
     </row>
-    <row r="314" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A314" s="1" t="s">
         <v>626</v>
       </c>
@@ -20313,7 +20312,7 @@
         <v>*</v>
       </c>
     </row>
-    <row r="315" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A315" s="1" t="s">
         <v>629</v>
       </c>
@@ -20364,7 +20363,7 @@
         <v>*</v>
       </c>
     </row>
-    <row r="316" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A316" s="1" t="s">
         <v>733</v>
       </c>
@@ -20421,7 +20420,7 @@
         <v>*</v>
       </c>
     </row>
-    <row r="317" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A317" s="1" t="s">
         <v>1296</v>
       </c>
@@ -20472,7 +20471,7 @@
         <v>*</v>
       </c>
     </row>
-    <row r="318" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A318" s="1" t="s">
         <v>330</v>
       </c>
@@ -20523,7 +20522,7 @@
         <v>*</v>
       </c>
     </row>
-    <row r="319" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A319" s="1" t="s">
         <v>486</v>
       </c>
@@ -20574,7 +20573,7 @@
         <v>*</v>
       </c>
     </row>
-    <row r="320" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A320" s="1" t="s">
         <v>545</v>
       </c>
@@ -20625,7 +20624,7 @@
         <v>*</v>
       </c>
     </row>
-    <row r="321" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A321" s="1" t="s">
         <v>961</v>
       </c>
@@ -20676,7 +20675,7 @@
         <v>*</v>
       </c>
     </row>
-    <row r="322" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A322" s="1" t="s">
         <v>1112</v>
       </c>
@@ -20727,7 +20726,7 @@
         <v>*</v>
       </c>
     </row>
-    <row r="323" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A323" s="1" t="s">
         <v>1115</v>
       </c>
@@ -20784,7 +20783,7 @@
         <v>*</v>
       </c>
     </row>
-    <row r="324" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A324" s="1" t="s">
         <v>1217</v>
       </c>
@@ -20835,7 +20834,7 @@
         <v>*</v>
       </c>
     </row>
-    <row r="325" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A325" s="1" t="s">
         <v>1279</v>
       </c>
@@ -20886,7 +20885,7 @@
         <v>*</v>
       </c>
     </row>
-    <row r="326" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A326" s="1" t="s">
         <v>156</v>
       </c>
@@ -20937,7 +20936,7 @@
         <v>*</v>
       </c>
     </row>
-    <row r="327" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A327" s="1" t="s">
         <v>326</v>
       </c>
@@ -20988,7 +20987,7 @@
         <v>*</v>
       </c>
     </row>
-    <row r="328" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A328" s="1" t="s">
         <v>391</v>
       </c>
@@ -21039,7 +21038,7 @@
         <v>*</v>
       </c>
     </row>
-    <row r="329" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A329" s="1" t="s">
         <v>394</v>
       </c>
@@ -21090,7 +21089,7 @@
         <v>*</v>
       </c>
     </row>
-    <row r="330" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A330" s="1" t="s">
         <v>482</v>
       </c>
@@ -21141,7 +21140,7 @@
         <v>*</v>
       </c>
     </row>
-    <row r="331" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A331" s="1" t="s">
         <v>548</v>
       </c>
@@ -21192,7 +21191,7 @@
         <v>*</v>
       </c>
     </row>
-    <row r="332" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A332" s="1" t="s">
         <v>551</v>
       </c>
@@ -21243,7 +21242,7 @@
         <v>*</v>
       </c>
     </row>
-    <row r="333" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A333" s="1" t="s">
         <v>632</v>
       </c>
@@ -21297,7 +21296,7 @@
         <v>*</v>
       </c>
     </row>
-    <row r="334" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A334" s="1" t="s">
         <v>772</v>
       </c>
@@ -21348,7 +21347,7 @@
         <v>*</v>
       </c>
     </row>
-    <row r="335" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A335" s="1" t="s">
         <v>775</v>
       </c>
@@ -21399,7 +21398,7 @@
         <v>*</v>
       </c>
     </row>
-    <row r="336" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A336" s="1" t="s">
         <v>1292</v>
       </c>
@@ -21450,7 +21449,7 @@
         <v>*</v>
       </c>
     </row>
-    <row r="337" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:18" ht="14.1" x14ac:dyDescent="0.5">
       <c r="A337" s="1" t="s">
         <v>1305</v>
       </c>
@@ -21501,7 +21500,7 @@
         <v>*</v>
       </c>
     </row>
-    <row r="338" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A338" s="1" t="s">
         <v>48</v>
       </c>
@@ -21549,7 +21548,7 @@
         <v>*</v>
       </c>
     </row>
-    <row r="339" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A339" s="1" t="s">
         <v>159</v>
       </c>
@@ -21597,7 +21596,7 @@
         <v>*</v>
       </c>
     </row>
-    <row r="340" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A340" s="1" t="s">
         <v>279</v>
       </c>
@@ -21645,7 +21644,7 @@
         <v>*</v>
       </c>
     </row>
-    <row r="341" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A341" s="1" t="s">
         <v>286</v>
       </c>
@@ -21693,7 +21692,7 @@
         <v>*</v>
       </c>
     </row>
-    <row r="342" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A342" s="1" t="s">
         <v>397</v>
       </c>
@@ -21741,7 +21740,7 @@
         <v>*</v>
       </c>
     </row>
-    <row r="343" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A343" s="1" t="s">
         <v>401</v>
       </c>
@@ -21789,7 +21788,7 @@
         <v>*</v>
       </c>
     </row>
-    <row r="344" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A344" s="1" t="s">
         <v>403</v>
       </c>
@@ -21837,7 +21836,7 @@
         <v>*</v>
       </c>
     </row>
-    <row r="345" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A345" s="1" t="s">
         <v>489</v>
       </c>
@@ -21885,7 +21884,7 @@
         <v>*</v>
       </c>
     </row>
-    <row r="346" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A346" s="1" t="s">
         <v>554</v>
       </c>
@@ -21933,7 +21932,7 @@
         <v>*</v>
       </c>
     </row>
-    <row r="347" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A347" s="1" t="s">
         <v>637</v>
       </c>
@@ -21981,7 +21980,7 @@
         <v>*</v>
       </c>
     </row>
-    <row r="348" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A348" s="1" t="s">
         <v>640</v>
       </c>
@@ -22035,7 +22034,7 @@
         <v>*</v>
       </c>
     </row>
-    <row r="349" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A349" s="1" t="s">
         <v>645</v>
       </c>
@@ -22089,7 +22088,7 @@
         <v>*</v>
       </c>
     </row>
-    <row r="350" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A350" s="1" t="s">
         <v>650</v>
       </c>
@@ -22137,7 +22136,7 @@
         <v>*</v>
       </c>
     </row>
-    <row r="351" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A351" s="1" t="s">
         <v>657</v>
       </c>
@@ -22185,7 +22184,7 @@
         <v>*</v>
       </c>
     </row>
-    <row r="352" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A352" s="1" t="s">
         <v>738</v>
       </c>
@@ -22236,7 +22235,7 @@
         <v>*</v>
       </c>
     </row>
-    <row r="353" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A353" s="1" t="s">
         <v>778</v>
       </c>
@@ -22284,7 +22283,7 @@
         <v>*</v>
       </c>
     </row>
-    <row r="354" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A354" s="1" t="s">
         <v>782</v>
       </c>
@@ -22332,7 +22331,7 @@
         <v>*</v>
       </c>
     </row>
-    <row r="355" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A355" s="1" t="s">
         <v>786</v>
       </c>
@@ -22383,7 +22382,7 @@
         <v>*</v>
       </c>
     </row>
-    <row r="356" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A356" s="1" t="s">
         <v>790</v>
       </c>
@@ -22431,7 +22430,7 @@
         <v>*</v>
       </c>
     </row>
-    <row r="357" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A357" s="1" t="s">
         <v>823</v>
       </c>
@@ -22479,7 +22478,7 @@
         <v>*</v>
       </c>
     </row>
-    <row r="358" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A358" s="1" t="s">
         <v>877</v>
       </c>
@@ -22527,7 +22526,7 @@
         <v>*</v>
       </c>
     </row>
-    <row r="359" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A359" s="1" t="s">
         <v>911</v>
       </c>
@@ -22575,7 +22574,7 @@
         <v>*</v>
       </c>
     </row>
-    <row r="360" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A360" s="1" t="s">
         <v>1042</v>
       </c>
@@ -22626,7 +22625,7 @@
         <v>*</v>
       </c>
     </row>
-    <row r="361" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A361" s="1" t="s">
         <v>1120</v>
       </c>
@@ -22674,7 +22673,7 @@
         <v>*</v>
       </c>
     </row>
-    <row r="362" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A362" s="1" t="s">
         <v>1256</v>
       </c>
@@ -22722,7 +22721,7 @@
         <v>*</v>
       </c>
     </row>
-    <row r="363" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A363" s="1" t="s">
         <v>282</v>
       </c>
@@ -22770,7 +22769,7 @@
         <v>*</v>
       </c>
     </row>
-    <row r="364" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A364" s="1" t="s">
         <v>492</v>
       </c>
@@ -22818,7 +22817,7 @@
         <v>*</v>
       </c>
     </row>
-    <row r="365" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A365" s="1" t="s">
         <v>653</v>
       </c>
@@ -22866,7 +22865,7 @@
         <v>*</v>
       </c>
     </row>
-    <row r="366" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A366" s="1" t="s">
         <v>939</v>
       </c>
@@ -22914,7 +22913,7 @@
         <v>*</v>
       </c>
     </row>
-    <row r="367" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A367" s="1" t="s">
         <v>1123</v>
       </c>
@@ -22962,7 +22961,7 @@
         <v>*</v>
       </c>
     </row>
-    <row r="368" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A368" s="1" t="s">
         <v>1286</v>
       </c>
@@ -23010,7 +23009,7 @@
         <v>*</v>
       </c>
     </row>
-    <row r="369" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A369" s="1" t="s">
         <v>1311</v>
       </c>
@@ -23058,7 +23057,7 @@
         <v>*</v>
       </c>
     </row>
-    <row r="370" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A370" s="1" t="s">
         <v>51</v>
       </c>
@@ -23106,7 +23105,7 @@
         <v>*</v>
       </c>
     </row>
-    <row r="371" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A371" s="1" t="s">
         <v>162</v>
       </c>
@@ -23154,7 +23153,7 @@
         <v>*</v>
       </c>
     </row>
-    <row r="372" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A372" s="1" t="s">
         <v>496</v>
       </c>
@@ -23202,7 +23201,7 @@
         <v>*</v>
       </c>
     </row>
-    <row r="373" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A373" s="1" t="s">
         <v>558</v>
       </c>
@@ -23250,7 +23249,7 @@
         <v>*</v>
       </c>
     </row>
-    <row r="374" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A374" s="1" t="s">
         <v>561</v>
       </c>
@@ -23298,7 +23297,7 @@
         <v>*</v>
       </c>
     </row>
-    <row r="375" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A375" s="1" t="s">
         <v>564</v>
       </c>
@@ -23346,7 +23345,7 @@
         <v>*</v>
       </c>
     </row>
-    <row r="376" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A376" s="1" t="s">
         <v>741</v>
       </c>
@@ -23394,7 +23393,7 @@
         <v>*</v>
       </c>
     </row>
-    <row r="377" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A377" s="1" t="s">
         <v>852</v>
       </c>
@@ -23442,7 +23441,7 @@
         <v>*</v>
       </c>
     </row>
-    <row r="378" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A378" s="1" t="s">
         <v>1077</v>
       </c>
@@ -23490,7 +23489,7 @@
         <v>*</v>
       </c>
     </row>
-    <row r="379" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A379" s="1" t="s">
         <v>1159</v>
       </c>
@@ -23538,7 +23537,7 @@
         <v>*</v>
       </c>
     </row>
-    <row r="380" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A380" s="1" t="s">
         <v>1162</v>
       </c>
@@ -23586,7 +23585,7 @@
         <v>*</v>
       </c>
     </row>
-    <row r="381" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A381" s="1" t="s">
         <v>1199</v>
       </c>
@@ -23634,7 +23633,7 @@
         <v>*</v>
       </c>
     </row>
-    <row r="382" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A382" s="1" t="s">
         <v>1259</v>
       </c>
@@ -23682,7 +23681,7 @@
         <v>*</v>
       </c>
     </row>
-    <row r="383" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A383" s="1" t="s">
         <v>165</v>
       </c>
@@ -23730,7 +23729,7 @@
         <v>*</v>
       </c>
     </row>
-    <row r="384" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A384" s="1" t="s">
         <v>228</v>
       </c>
@@ -23778,7 +23777,7 @@
         <v>*</v>
       </c>
     </row>
-    <row r="385" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A385" s="1" t="s">
         <v>406</v>
       </c>
@@ -23826,7 +23825,7 @@
         <v>*</v>
       </c>
     </row>
-    <row r="386" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A386" s="1" t="s">
         <v>499</v>
       </c>
@@ -23874,7 +23873,7 @@
         <v>*</v>
       </c>
     </row>
-    <row r="387" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A387" s="1" t="s">
         <v>502</v>
       </c>
@@ -23922,7 +23921,7 @@
         <v>*</v>
       </c>
     </row>
-    <row r="388" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A388" s="1" t="s">
         <v>567</v>
       </c>
@@ -23970,7 +23969,7 @@
         <v>*</v>
       </c>
     </row>
-    <row r="389" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A389" s="1" t="s">
         <v>570</v>
       </c>
@@ -24018,7 +24017,7 @@
         <v>*</v>
       </c>
     </row>
-    <row r="390" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A390" s="1" t="s">
         <v>573</v>
       </c>
@@ -24066,7 +24065,7 @@
         <v>*</v>
       </c>
     </row>
-    <row r="391" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A391" s="1" t="s">
         <v>661</v>
       </c>
@@ -24114,7 +24113,7 @@
         <v>*</v>
       </c>
     </row>
-    <row r="392" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A392" s="1" t="s">
         <v>664</v>
       </c>
@@ -24162,7 +24161,7 @@
         <v>*</v>
       </c>
     </row>
-    <row r="393" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A393" s="1" t="s">
         <v>965</v>
       </c>
@@ -24210,7 +24209,7 @@
         <v>*</v>
       </c>
     </row>
-    <row r="394" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A394" s="1" t="s">
         <v>968</v>
       </c>
@@ -24258,7 +24257,7 @@
         <v>*</v>
       </c>
     </row>
-    <row r="395" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A395" s="1" t="s">
         <v>1165</v>
       </c>
@@ -24306,7 +24305,7 @@
         <v>*</v>
       </c>
     </row>
-    <row r="396" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A396" s="1" t="s">
         <v>1168</v>
       </c>
@@ -24354,7 +24353,7 @@
         <v>*</v>
       </c>
     </row>
-    <row r="397" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A397" s="1" t="s">
         <v>1263</v>
       </c>
@@ -24402,7 +24401,7 @@
         <v>*</v>
       </c>
     </row>
-    <row r="398" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A398" s="1" t="s">
         <v>1325</v>
       </c>
@@ -24450,7 +24449,7 @@
         <v>*</v>
       </c>
     </row>
-    <row r="399" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A399" s="1" t="s">
         <v>1473</v>
       </c>
@@ -24495,7 +24494,7 @@
         <v>*</v>
       </c>
     </row>
-    <row r="400" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A400" s="1" t="s">
         <v>1474</v>
       </c>
@@ -24540,7 +24539,7 @@
         <v>*</v>
       </c>
     </row>
-    <row r="401" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A401" s="1" t="s">
         <v>1444</v>
       </c>
@@ -24588,7 +24587,7 @@
         <v>*</v>
       </c>
     </row>
-    <row r="402" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A402" s="1" t="s">
         <v>1452</v>
       </c>
@@ -24633,7 +24632,7 @@
         <v>*</v>
       </c>
     </row>
-    <row r="403" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A403" s="1" t="s">
         <v>1453</v>
       </c>
@@ -24678,7 +24677,7 @@
         <v>*</v>
       </c>
     </row>
-    <row r="404" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A404" s="1" t="s">
         <v>1454</v>
       </c>
@@ -24723,7 +24722,7 @@
         <v>*</v>
       </c>
     </row>
-    <row r="405" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A405" s="1" t="s">
         <v>1457</v>
       </c>
@@ -24768,7 +24767,7 @@
         <v>*</v>
       </c>
     </row>
-    <row r="406" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A406" s="1" t="s">
         <v>1460</v>
       </c>
@@ -24813,7 +24812,7 @@
         <v>*</v>
       </c>
     </row>
-    <row r="407" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A407" s="1" t="s">
         <v>1461</v>
       </c>
@@ -24861,7 +24860,7 @@
         <v>*</v>
       </c>
     </row>
-    <row r="408" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A408" s="1" t="s">
         <v>1462</v>
       </c>
@@ -24906,7 +24905,7 @@
         <v>*</v>
       </c>
     </row>
-    <row r="409" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A409" s="1" t="s">
         <v>1463</v>
       </c>
@@ -24951,7 +24950,7 @@
         <v>*</v>
       </c>
     </row>
-    <row r="410" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A410" s="1" t="s">
         <v>1465</v>
       </c>
@@ -24996,7 +24995,7 @@
         <v>*</v>
       </c>
     </row>
-    <row r="411" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A411" s="1" t="s">
         <v>1466</v>
       </c>
@@ -25041,7 +25040,7 @@
         <v>*</v>
       </c>
     </row>
-    <row r="412" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A412" s="1" t="s">
         <v>1468</v>
       </c>
@@ -25086,7 +25085,7 @@
         <v>*</v>
       </c>
     </row>
-    <row r="413" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A413" s="1" t="s">
         <v>1470</v>
       </c>
@@ -25131,7 +25130,7 @@
         <v>*</v>
       </c>
     </row>
-    <row r="414" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A414" s="1" t="s">
         <v>1471</v>
       </c>
@@ -25176,7 +25175,7 @@
         <v>*</v>
       </c>
     </row>
-    <row r="415" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A415" s="1" t="s">
         <v>1475</v>
       </c>
@@ -25218,7 +25217,7 @@
         <v>*</v>
       </c>
     </row>
-    <row r="416" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A416" s="1" t="s">
         <v>1476</v>
       </c>
@@ -25263,7 +25262,7 @@
         <v>*</v>
       </c>
     </row>
-    <row r="417" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A417" s="1" t="s">
         <v>1477</v>
       </c>
@@ -25308,7 +25307,7 @@
         <v>*</v>
       </c>
     </row>
-    <row r="418" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A418" s="1" t="s">
         <v>1478</v>
       </c>
@@ -25353,7 +25352,7 @@
         <v>*</v>
       </c>
     </row>
-    <row r="419" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A419" s="1" t="s">
         <v>1482</v>
       </c>
@@ -25398,7 +25397,7 @@
         <v>*</v>
       </c>
     </row>
-    <row r="420" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A420" s="1" t="s">
         <v>1483</v>
       </c>
@@ -25443,7 +25442,7 @@
         <v>*</v>
       </c>
     </row>
-    <row r="421" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A421" s="1" t="s">
         <v>1485</v>
       </c>
@@ -25488,7 +25487,7 @@
         <v>*</v>
       </c>
     </row>
-    <row r="422" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A422" s="1" t="s">
         <v>1446</v>
       </c>
@@ -25533,7 +25532,7 @@
         <v>*</v>
       </c>
     </row>
-    <row r="423" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A423" s="1" t="s">
         <v>1448</v>
       </c>
@@ -25578,7 +25577,7 @@
         <v>*</v>
       </c>
     </row>
-    <row r="424" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A424" s="1" t="s">
         <v>1458</v>
       </c>
@@ -25623,7 +25622,7 @@
         <v>*</v>
       </c>
     </row>
-    <row r="425" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A425" s="1" t="s">
         <v>1464</v>
       </c>
@@ -25668,7 +25667,7 @@
         <v>*</v>
       </c>
     </row>
-    <row r="426" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A426" s="1" t="s">
         <v>1467</v>
       </c>
@@ -25713,7 +25712,7 @@
         <v>*</v>
       </c>
     </row>
-    <row r="427" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A427" s="1" t="s">
         <v>1469</v>
       </c>
@@ -25758,7 +25757,7 @@
         <v>*</v>
       </c>
     </row>
-    <row r="428" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A428" s="1" t="s">
         <v>1472</v>
       </c>
@@ -25803,7 +25802,7 @@
         <v>*</v>
       </c>
     </row>
-    <row r="429" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A429" s="1" t="s">
         <v>1480</v>
       </c>
@@ -25848,7 +25847,7 @@
         <v>*</v>
       </c>
     </row>
-    <row r="430" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A430" s="1" t="s">
         <v>1486</v>
       </c>
@@ -25895,18 +25894,6 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:R430">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="28"/>
-        <filter val="29"/>
-        <filter val="30"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="17">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
-    </filterColumn>
     <sortState ref="A2:R430">
       <sortCondition ref="J1:J430"/>
     </sortState>
@@ -25924,13 +25911,13 @@
       <selection activeCell="B169" sqref="B169"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -25938,7 +25925,7 @@
         <v>1525</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
@@ -25946,7 +25933,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>32</v>
       </c>
@@ -25954,7 +25941,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>1271</v>
       </c>
@@ -25962,7 +25949,7 @@
         <v>1527</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>1289</v>
       </c>
@@ -25970,7 +25957,7 @@
         <v>1529</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>72</v>
       </c>
@@ -25978,7 +25965,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>118</v>
       </c>
@@ -25986,7 +25973,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
         <v>124</v>
       </c>
@@ -25994,7 +25981,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
         <v>174</v>
       </c>
@@ -26002,7 +25989,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
         <v>180</v>
       </c>
@@ -26010,7 +25997,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
         <v>232</v>
       </c>
@@ -26018,7 +26005,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
         <v>240</v>
       </c>
@@ -26026,7 +26013,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
         <v>253</v>
       </c>
@@ -26034,7 +26021,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
         <v>289</v>
       </c>
@@ -26042,7 +26029,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
         <v>294</v>
       </c>
@@ -26050,7 +26037,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
         <v>341</v>
       </c>
@@ -26058,7 +26045,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
         <v>350</v>
       </c>
@@ -26066,7 +26053,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
         <v>353</v>
       </c>
@@ -26074,7 +26061,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
         <v>410</v>
       </c>
@@ -26082,7 +26069,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
         <v>431</v>
       </c>
@@ -26090,7 +26077,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
         <v>434</v>
       </c>
@@ -26098,7 +26085,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
         <v>444</v>
       </c>
@@ -26106,7 +26093,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
         <v>510</v>
       </c>
@@ -26114,7 +26101,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
         <v>528</v>
       </c>
@@ -26122,7 +26109,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
         <v>581</v>
       </c>
@@ -26130,7 +26117,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A26" s="1" t="s">
         <v>590</v>
       </c>
@@ -26138,7 +26125,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A27" s="1" t="s">
         <v>593</v>
       </c>
@@ -26146,7 +26133,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A28" s="1" t="s">
         <v>599</v>
       </c>
@@ -26154,7 +26141,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A29" s="1" t="s">
         <v>602</v>
       </c>
@@ -26162,7 +26149,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A30" s="1" t="s">
         <v>673</v>
       </c>
@@ -26170,7 +26157,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A31" s="1" t="s">
         <v>697</v>
       </c>
@@ -26178,7 +26165,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A32" s="1" t="s">
         <v>700</v>
       </c>
@@ -26186,7 +26173,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A33" s="1" t="s">
         <v>756</v>
       </c>
@@ -26194,7 +26181,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A34" s="1" t="s">
         <v>759</v>
       </c>
@@ -26202,7 +26189,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A35" s="1" t="s">
         <v>799</v>
       </c>
@@ -26210,7 +26197,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A36" s="1" t="s">
         <v>805</v>
       </c>
@@ -26218,7 +26205,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A37" s="1" t="s">
         <v>831</v>
       </c>
@@ -26226,7 +26213,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A38" s="1" t="s">
         <v>837</v>
       </c>
@@ -26234,7 +26221,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A39" s="1" t="s">
         <v>889</v>
       </c>
@@ -26242,7 +26229,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A40" s="1" t="s">
         <v>915</v>
       </c>
@@ -26250,7 +26237,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A41" s="1" t="s">
         <v>971</v>
       </c>
@@ -26258,7 +26245,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A42" s="1" t="s">
         <v>1014</v>
       </c>
@@ -26266,7 +26253,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A43" s="1" t="s">
         <v>1035</v>
       </c>
@@ -26274,7 +26261,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A44" s="1" t="s">
         <v>1058</v>
       </c>
@@ -26282,7 +26269,7 @@
         <v>1058</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A45" s="1" t="s">
         <v>1085</v>
       </c>
@@ -26290,7 +26277,7 @@
         <v>1085</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A46" s="1" t="s">
         <v>1126</v>
       </c>
@@ -26298,7 +26285,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A47" s="1" t="s">
         <v>1172</v>
       </c>
@@ -26306,7 +26293,7 @@
         <v>1172</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A48" s="1" t="s">
         <v>1202</v>
       </c>
@@ -26314,7 +26301,7 @@
         <v>1202</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A49" s="1" t="s">
         <v>1213</v>
       </c>
@@ -26322,7 +26309,7 @@
         <v>1213</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A50" s="1" t="s">
         <v>1236</v>
       </c>
@@ -26330,7 +26317,7 @@
         <v>1236</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A51" s="1" t="s">
         <v>886</v>
       </c>
@@ -26338,7 +26325,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A52" s="1" t="s">
         <v>250</v>
       </c>
@@ -26346,7 +26333,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A53" s="1" t="s">
         <v>605</v>
       </c>
@@ -26354,7 +26341,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A54" s="1" t="s">
         <v>333</v>
       </c>
@@ -26362,7 +26349,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A55" s="1" t="s">
         <v>694</v>
       </c>
@@ -26370,7 +26357,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A56" s="1" t="s">
         <v>860</v>
       </c>
@@ -26378,7 +26365,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A57" s="1" t="s">
         <v>1036</v>
       </c>
@@ -26386,7 +26373,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A58" s="1" t="s">
         <v>112</v>
       </c>
@@ -26394,7 +26381,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A59" s="1" t="s">
         <v>437</v>
       </c>
@@ -26402,7 +26389,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A60" s="1" t="s">
         <v>596</v>
       </c>
@@ -26410,7 +26397,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A61" s="1" t="s">
         <v>1177</v>
       </c>
@@ -26418,7 +26405,7 @@
         <v>1177</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A62" s="1" t="s">
         <v>1308</v>
       </c>
@@ -26426,7 +26413,7 @@
         <v>1532</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A63" s="1" t="s">
         <v>63</v>
       </c>
@@ -26434,7 +26421,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A64" s="1" t="s">
         <v>66</v>
       </c>
@@ -26442,7 +26429,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A65" s="1" t="s">
         <v>83</v>
       </c>
@@ -26450,7 +26437,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A66" s="1" t="s">
         <v>169</v>
       </c>
@@ -26458,7 +26445,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A67" s="1" t="s">
         <v>359</v>
       </c>
@@ -26466,7 +26453,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A68" s="1" t="s">
         <v>421</v>
       </c>
@@ -26474,7 +26461,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A69" s="1" t="s">
         <v>522</v>
       </c>
@@ -26482,7 +26469,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A70" s="1" t="s">
         <v>89</v>
       </c>
@@ -26490,7 +26477,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A71" s="1" t="s">
         <v>131</v>
       </c>
@@ -26498,7 +26485,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A72" s="1" t="s">
         <v>304</v>
       </c>
@@ -26506,7 +26493,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A73" s="1" t="s">
         <v>516</v>
       </c>
@@ -26514,7 +26501,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A74" s="1" t="s">
         <v>38</v>
       </c>
@@ -26522,7 +26509,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A75" s="1" t="s">
         <v>107</v>
       </c>
@@ -26530,7 +26517,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A76" s="1" t="s">
         <v>137</v>
       </c>
@@ -26538,7 +26525,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A77" s="1" t="s">
         <v>356</v>
       </c>
@@ -26546,7 +26533,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A78" s="1" t="s">
         <v>441</v>
       </c>
@@ -26554,7 +26541,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A79" s="1" t="s">
         <v>513</v>
       </c>
@@ -26562,7 +26549,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A80" s="1" t="s">
         <v>683</v>
       </c>
@@ -26570,7 +26557,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A81" s="1" t="s">
         <v>802</v>
       </c>
@@ -26578,7 +26565,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A82" s="1" t="s">
         <v>834</v>
       </c>
@@ -26586,7 +26573,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A83" s="1" t="s">
         <v>1030</v>
       </c>
@@ -26594,7 +26581,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A84" s="1" t="s">
         <v>1129</v>
       </c>
@@ -26602,7 +26589,7 @@
         <v>1129</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A85" s="1" t="s">
         <v>369</v>
       </c>
@@ -26610,7 +26597,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A86" s="1" t="s">
         <v>745</v>
       </c>
@@ -26618,7 +26605,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A87" s="1" t="s">
         <v>750</v>
       </c>
@@ -26626,7 +26613,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A88" s="1" t="s">
         <v>762</v>
       </c>
@@ -26634,7 +26621,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A89" s="1" t="s">
         <v>177</v>
       </c>
@@ -26642,7 +26629,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A90" s="1" t="s">
         <v>183</v>
       </c>
@@ -26650,7 +26637,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A91" s="1" t="s">
         <v>186</v>
       </c>
@@ -26658,7 +26645,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A92" s="1" t="s">
         <v>587</v>
       </c>
@@ -26666,7 +26653,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A93" s="1" t="s">
         <v>668</v>
       </c>
@@ -26674,7 +26661,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A94" s="1" t="s">
         <v>706</v>
       </c>
@@ -26682,7 +26669,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A95" s="1" t="s">
         <v>1180</v>
       </c>
@@ -26690,7 +26677,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A96" s="1" t="s">
         <v>1239</v>
       </c>
@@ -26698,7 +26685,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A97" s="1" t="s">
         <v>826</v>
       </c>
@@ -26706,7 +26693,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A98" s="1" t="s">
         <v>1089</v>
       </c>
@@ -26714,7 +26701,7 @@
         <v>1089</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A99" s="1" t="s">
         <v>1314</v>
       </c>
@@ -26722,7 +26709,7 @@
         <v>1534</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A100" s="1" t="s">
         <v>115</v>
       </c>
@@ -26730,7 +26717,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A101" s="1" t="s">
         <v>372</v>
       </c>
@@ -26738,7 +26725,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A102" s="1" t="s">
         <v>978</v>
       </c>
@@ -26746,7 +26733,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A103" s="1" t="s">
         <v>23</v>
       </c>
@@ -26754,7 +26741,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A104" s="1" t="s">
         <v>584</v>
       </c>
@@ -26762,7 +26749,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A105" s="1" t="s">
         <v>881</v>
       </c>
@@ -26770,7 +26757,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A106" s="1" t="s">
         <v>26</v>
       </c>
@@ -26778,7 +26765,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A107" s="1" t="s">
         <v>55</v>
       </c>
@@ -26786,7 +26773,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A108" s="1" t="s">
         <v>78</v>
       </c>
@@ -26794,7 +26781,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A109" s="1" t="s">
         <v>189</v>
       </c>
@@ -26802,7 +26789,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A110" s="1" t="s">
         <v>247</v>
       </c>
@@ -26810,7 +26797,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A111" s="1" t="s">
         <v>256</v>
       </c>
@@ -26818,7 +26805,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A112" s="1" t="s">
         <v>259</v>
       </c>
@@ -26826,7 +26813,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A113" s="1" t="s">
         <v>295</v>
       </c>
@@ -26834,7 +26821,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A114" s="1" t="s">
         <v>344</v>
       </c>
@@ -26842,7 +26829,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A115" s="1" t="s">
         <v>363</v>
       </c>
@@ -26850,7 +26837,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A116" s="1" t="s">
         <v>415</v>
       </c>
@@ -26858,7 +26845,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A117" s="1" t="s">
         <v>424</v>
       </c>
@@ -26866,7 +26853,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A118" s="1" t="s">
         <v>455</v>
       </c>
@@ -26874,7 +26861,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A119" s="1" t="s">
         <v>709</v>
       </c>
@@ -26882,7 +26869,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A120" s="1" t="s">
         <v>712</v>
       </c>
@@ -26890,7 +26877,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A121" s="1" t="s">
         <v>794</v>
       </c>
@@ -26898,7 +26885,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A122" s="1" t="s">
         <v>811</v>
       </c>
@@ -26906,7 +26893,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A123" s="1" t="s">
         <v>855</v>
       </c>
@@ -26914,7 +26901,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A124" s="1" t="s">
         <v>949</v>
       </c>
@@ -26922,7 +26909,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A125" s="1" t="s">
         <v>1039</v>
       </c>
@@ -26930,7 +26917,7 @@
         <v>1039</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A126" s="1" t="s">
         <v>75</v>
       </c>
@@ -26938,7 +26925,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A127" s="1" t="s">
         <v>81</v>
       </c>
@@ -26946,7 +26933,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A128" s="1" t="s">
         <v>86</v>
       </c>
@@ -26954,7 +26941,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A129" s="1" t="s">
         <v>347</v>
       </c>
@@ -26962,7 +26949,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A130" s="1" t="s">
         <v>808</v>
       </c>
@@ -26970,7 +26957,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A131" s="1" t="s">
         <v>1266</v>
       </c>
@@ -26978,7 +26965,7 @@
         <v>1526</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A132" s="1" t="s">
         <v>1276</v>
       </c>
@@ -26986,7 +26973,7 @@
         <v>1528</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A133" s="1" t="s">
         <v>134</v>
       </c>
@@ -26994,7 +26981,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A134" s="1" t="s">
         <v>1484</v>
       </c>
@@ -27002,7 +26989,7 @@
         <v>1533</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A135" s="1" t="s">
         <v>1095</v>
       </c>
@@ -27010,7 +26997,7 @@
         <v>1095</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A136" s="1" t="s">
         <v>451</v>
       </c>
@@ -27018,7 +27005,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A137" s="1" t="s">
         <v>301</v>
       </c>
@@ -27026,7 +27013,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A138" s="1" t="s">
         <v>505</v>
       </c>
@@ -27034,7 +27021,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A139" s="1" t="s">
         <v>680</v>
       </c>
@@ -27042,7 +27029,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A140" s="1" t="s">
         <v>943</v>
       </c>
@@ -27050,7 +27037,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A141" s="1" t="s">
         <v>918</v>
       </c>
@@ -27058,7 +27045,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A142" s="1" t="s">
         <v>921</v>
       </c>
@@ -27066,7 +27053,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A143" s="1" t="s">
         <v>930</v>
       </c>
@@ -27074,7 +27061,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A144" s="1" t="s">
         <v>237</v>
       </c>
@@ -27082,7 +27069,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A145" s="1" t="s">
         <v>243</v>
       </c>
@@ -27090,7 +27077,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A146" s="1" t="s">
         <v>1005</v>
       </c>
@@ -27098,7 +27085,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A147" s="1" t="s">
         <v>1010</v>
       </c>
@@ -27106,7 +27093,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A148" s="1" t="s">
         <v>1045</v>
       </c>
@@ -27114,7 +27101,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A149" s="1" t="s">
         <v>1049</v>
       </c>
@@ -27122,7 +27109,7 @@
         <v>1049</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A150" s="1" t="s">
         <v>1052</v>
       </c>
@@ -27130,7 +27117,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A151" s="1" t="s">
         <v>703</v>
       </c>
@@ -27138,7 +27125,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A152" s="1" t="s">
         <v>753</v>
       </c>
@@ -27146,7 +27133,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A153" s="1" t="s">
         <v>953</v>
       </c>
@@ -27154,7 +27141,7 @@
         <v>953</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A154" s="1" t="s">
         <v>418</v>
       </c>
@@ -27162,7 +27149,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A155" s="1" t="s">
         <v>427</v>
       </c>
@@ -27170,7 +27157,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A156" s="1" t="s">
         <v>448</v>
       </c>
@@ -27178,7 +27165,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A157" s="1" t="s">
         <v>519</v>
       </c>
@@ -27186,7 +27173,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A158" s="1" t="s">
         <v>525</v>
       </c>
@@ -27194,7 +27181,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A159" s="1" t="s">
         <v>576</v>
       </c>
@@ -27202,7 +27189,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A160" s="1" t="s">
         <v>1139</v>
       </c>
@@ -27210,7 +27197,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A161" s="1" t="s">
         <v>1092</v>
       </c>
@@ -27218,7 +27205,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A162" s="1" t="s">
         <v>1183</v>
       </c>
@@ -27226,7 +27213,7 @@
         <v>1183</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A163" s="1" t="s">
         <v>20</v>
       </c>
@@ -27234,7 +27221,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A164" s="1" t="s">
         <v>1132</v>
       </c>
@@ -27242,7 +27229,7 @@
         <v>1132</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A165" s="1" t="s">
         <v>1135</v>
       </c>
@@ -27250,7 +27237,7 @@
         <v>1135</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A166" s="1" t="s">
         <v>29</v>
       </c>
@@ -27258,7 +27245,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A167" s="1" t="s">
         <v>60</v>
       </c>
@@ -27266,7 +27253,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A168" s="1" t="s">
         <v>121</v>
       </c>
@@ -27274,7 +27261,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A169" s="1" t="s">
         <v>1299</v>
       </c>
@@ -27282,7 +27269,7 @@
         <v>1530</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A170" s="1" t="s">
         <v>366</v>
       </c>
@@ -27290,7 +27277,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A171" s="1" t="s">
         <v>532</v>
       </c>
@@ -27298,7 +27285,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A172" s="1" t="s">
         <v>677</v>
       </c>
@@ -27306,7 +27293,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A173" s="1" t="s">
         <v>687</v>
       </c>
@@ -27314,7 +27301,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A174" s="1" t="s">
         <v>974</v>
       </c>
@@ -27322,7 +27309,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A175" s="1" t="s">
         <v>982</v>
       </c>
@@ -27330,7 +27317,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A176" s="1" t="s">
         <v>990</v>
       </c>
@@ -27338,7 +27325,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="177" spans="1:16383" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:16383" x14ac:dyDescent="0.45">
       <c r="A177" s="1" t="s">
         <v>994</v>
       </c>
@@ -43727,7 +43714,7 @@
       <c r="XFB177" s="1"/>
       <c r="XFC177" s="1"/>
     </row>
-    <row r="178" spans="1:16383" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:16383" x14ac:dyDescent="0.45">
       <c r="A178" s="1" t="s">
         <v>1055</v>
       </c>
@@ -43735,7 +43722,7 @@
         <v>1055</v>
       </c>
     </row>
-    <row r="179" spans="1:16383" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:16383" x14ac:dyDescent="0.45">
       <c r="A179" s="1" t="s">
         <v>1226</v>
       </c>
@@ -43743,7 +43730,7 @@
         <v>1226</v>
       </c>
     </row>
-    <row r="180" spans="1:16383" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:16383" x14ac:dyDescent="0.45">
       <c r="A180" s="1" t="s">
         <v>1230</v>
       </c>
@@ -43751,7 +43738,7 @@
         <v>1230</v>
       </c>
     </row>
-    <row r="181" spans="1:16383" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:16383" x14ac:dyDescent="0.45">
       <c r="A181" s="1" t="s">
         <v>35</v>
       </c>
@@ -43759,7 +43746,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="182" spans="1:16383" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:16383" x14ac:dyDescent="0.45">
       <c r="A182" s="1" t="s">
         <v>127</v>
       </c>
@@ -43767,7 +43754,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="183" spans="1:16383" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:16383" x14ac:dyDescent="0.45">
       <c r="A183" s="1" t="s">
         <v>298</v>
       </c>
@@ -43775,7 +43762,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="184" spans="1:16383" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:16383" x14ac:dyDescent="0.45">
       <c r="A184" s="1" t="s">
         <v>307</v>
       </c>
@@ -43783,7 +43770,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="185" spans="1:16383" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:16383" x14ac:dyDescent="0.45">
       <c r="A185" s="1" t="s">
         <v>310</v>
       </c>
@@ -43791,7 +43778,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="186" spans="1:16383" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:16383" x14ac:dyDescent="0.45">
       <c r="A186" s="1" t="s">
         <v>338</v>
       </c>
@@ -43799,7 +43786,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="187" spans="1:16383" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:16383" x14ac:dyDescent="0.45">
       <c r="A187" s="1" t="s">
         <v>529</v>
       </c>
@@ -43807,7 +43794,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="188" spans="1:16383" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:16383" x14ac:dyDescent="0.45">
       <c r="A188" s="1" t="s">
         <v>674</v>
       </c>
@@ -43815,7 +43802,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="189" spans="1:16383" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:16383" x14ac:dyDescent="0.45">
       <c r="A189" s="1" t="s">
         <v>691</v>
       </c>
@@ -43823,7 +43810,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="190" spans="1:16383" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:16383" x14ac:dyDescent="0.45">
       <c r="A190" s="1" t="s">
         <v>864</v>
       </c>
@@ -43831,7 +43818,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="191" spans="1:16383" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:16383" x14ac:dyDescent="0.45">
       <c r="A191" s="1" t="s">
         <v>867</v>
       </c>
@@ -43839,7 +43826,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="192" spans="1:16383" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:16383" x14ac:dyDescent="0.45">
       <c r="A192" s="1" t="s">
         <v>924</v>
       </c>
@@ -43847,7 +43834,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A193" s="1" t="s">
         <v>986</v>
       </c>
@@ -43855,7 +43842,7 @@
         <v>986</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A194" s="1" t="s">
         <v>1210</v>
       </c>
@@ -43863,7 +43850,7 @@
         <v>1210</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A195" s="1" t="s">
         <v>1233</v>
       </c>
@@ -43871,7 +43858,7 @@
         <v>1233</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A196" s="1" t="s">
         <v>1080</v>
       </c>
@@ -43879,7 +43866,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A197" s="1" t="s">
         <v>1098</v>
       </c>
@@ -43887,7 +43874,7 @@
         <v>1098</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A198" s="1" t="s">
         <v>140</v>
       </c>
@@ -43895,7 +43882,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A199" s="1" t="s">
         <v>1302</v>
       </c>
@@ -43903,7 +43890,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A200" s="1" t="s">
         <v>1317</v>
       </c>
@@ -43911,7 +43898,7 @@
         <v>1535</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A201" s="1" t="s">
         <v>192</v>
       </c>
@@ -43919,7 +43906,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A202" s="1" t="s">
         <v>201</v>
       </c>
@@ -43927,7 +43914,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A203" s="1" t="s">
         <v>204</v>
       </c>
@@ -43935,7 +43922,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A204" s="1" t="s">
         <v>313</v>
       </c>
@@ -43943,7 +43930,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A205" s="1" t="s">
         <v>376</v>
       </c>
@@ -43951,7 +43938,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A206" s="1" t="s">
         <v>458</v>
       </c>
@@ -43959,7 +43946,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A207" s="1" t="s">
         <v>611</v>
       </c>
@@ -43967,7 +43954,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A208" s="1" t="s">
         <v>614</v>
       </c>
@@ -43975,7 +43962,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A209" s="1" t="s">
         <v>715</v>
       </c>
@@ -43983,7 +43970,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A210" s="1" t="s">
         <v>838</v>
       </c>
@@ -43991,7 +43978,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A211" s="1" t="s">
         <v>892</v>
       </c>
@@ -43999,7 +43986,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A212" s="1" t="s">
         <v>895</v>
       </c>
@@ -44007,7 +43994,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A213" s="1" t="s">
         <v>898</v>
       </c>
@@ -44015,7 +44002,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A214" s="1" t="s">
         <v>1102</v>
       </c>
@@ -44023,7 +44010,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A215" s="1" t="s">
         <v>1142</v>
       </c>
@@ -44031,7 +44018,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A216" s="1" t="s">
         <v>1241</v>
       </c>
@@ -44039,7 +44026,7 @@
         <v>1241</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A217" s="1" t="s">
         <v>195</v>
       </c>
@@ -44047,7 +44034,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A218" s="1" t="s">
         <v>198</v>
       </c>
@@ -44055,7 +44042,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A219" s="1" t="s">
         <v>262</v>
       </c>
@@ -44063,7 +44050,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A220" s="1" t="s">
         <v>265</v>
       </c>
@@ -44071,7 +44058,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A221" s="1" t="s">
         <v>269</v>
       </c>
@@ -44079,7 +44066,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A222" s="1" t="s">
         <v>379</v>
       </c>
@@ -44087,7 +44074,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A223" s="1" t="s">
         <v>608</v>
       </c>
@@ -44095,7 +44082,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A224" s="1" t="s">
         <v>720</v>
       </c>
@@ -44103,7 +44090,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A225" s="1" t="s">
         <v>765</v>
       </c>
@@ -44111,7 +44098,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A226" s="1" t="s">
         <v>842</v>
       </c>
@@ -44119,7 +44106,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A227" s="1" t="s">
         <v>870</v>
       </c>
@@ -44127,7 +44114,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A228" s="1" t="s">
         <v>1059</v>
       </c>
@@ -44135,7 +44122,7 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A229" s="1" t="s">
         <v>1175</v>
       </c>
@@ -44143,7 +44130,7 @@
         <v>1175</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A230" s="1" t="s">
         <v>1186</v>
       </c>
@@ -44151,7 +44138,7 @@
         <v>1186</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A231" s="1" t="s">
         <v>316</v>
       </c>
@@ -44159,7 +44146,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A232" s="1" t="s">
         <v>617</v>
       </c>
@@ -44167,7 +44154,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A233" s="1" t="s">
         <v>846</v>
       </c>
@@ -44175,7 +44162,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A234" s="1" t="s">
         <v>849</v>
       </c>
@@ -44183,7 +44170,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A235" s="1" t="s">
         <v>1106</v>
       </c>
@@ -44191,7 +44178,7 @@
         <v>1106</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A236" s="1" t="s">
         <v>814</v>
       </c>
@@ -44199,7 +44186,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A237" s="1" t="s">
         <v>817</v>
       </c>
@@ -44207,7 +44194,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A238" s="1" t="s">
         <v>901</v>
       </c>
@@ -44215,7 +44202,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A239" s="1" t="s">
         <v>904</v>
       </c>
@@ -44223,7 +44210,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A240" s="1" t="s">
         <v>907</v>
       </c>
@@ -44231,7 +44218,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A241" s="1" t="s">
         <v>1062</v>
       </c>
@@ -44239,7 +44226,7 @@
         <v>1062</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A242" s="1" t="s">
         <v>1145</v>
       </c>
@@ -44247,7 +44234,7 @@
         <v>1145</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A243" s="1" t="s">
         <v>92</v>
       </c>
@@ -44255,7 +44242,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A244" s="1" t="s">
         <v>143</v>
       </c>
@@ -44263,7 +44250,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A245" s="1" t="s">
         <v>147</v>
       </c>
@@ -44271,7 +44258,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A246" s="1" t="s">
         <v>207</v>
       </c>
@@ -44279,7 +44266,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A247" s="1" t="s">
         <v>210</v>
       </c>
@@ -44287,7 +44274,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A248" s="1" t="s">
         <v>319</v>
       </c>
@@ -44295,7 +44282,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A249" s="1" t="s">
         <v>461</v>
       </c>
@@ -44303,7 +44290,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A250" s="1" t="s">
         <v>620</v>
       </c>
@@ -44311,7 +44298,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A251" s="1" t="s">
         <v>933</v>
       </c>
@@ -44319,7 +44306,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A252" s="1" t="s">
         <v>936</v>
       </c>
@@ -44327,7 +44314,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A253" s="1" t="s">
         <v>998</v>
       </c>
@@ -44335,7 +44322,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A254" s="1" t="s">
         <v>150</v>
       </c>
@@ -44343,7 +44330,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A255" s="1" t="s">
         <v>272</v>
       </c>
@@ -44351,7 +44338,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A256" s="1" t="s">
         <v>275</v>
       </c>
@@ -44359,7 +44346,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A257" s="1" t="s">
         <v>381</v>
       </c>
@@ -44367,7 +44354,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A258" s="1" t="s">
         <v>535</v>
       </c>
@@ -44375,7 +44362,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A259" s="1" t="s">
         <v>723</v>
       </c>
@@ -44383,7 +44370,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A260" s="1" t="s">
         <v>1026</v>
       </c>
@@ -44391,7 +44378,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A261" s="1" t="s">
         <v>1148</v>
       </c>
@@ -44399,7 +44386,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A262" s="1" t="s">
         <v>1155</v>
       </c>
@@ -44407,7 +44394,7 @@
         <v>1129</v>
       </c>
     </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A263" s="1" t="s">
         <v>1189</v>
       </c>
@@ -44415,7 +44402,7 @@
         <v>1177</v>
       </c>
     </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A264" s="1" t="s">
         <v>1193</v>
       </c>
@@ -44423,7 +44410,7 @@
         <v>1172</v>
       </c>
     </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A265" s="1" t="s">
         <v>1205</v>
       </c>
@@ -44431,7 +44418,7 @@
         <v>1205</v>
       </c>
     </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A266" s="1" t="s">
         <v>95</v>
       </c>
@@ -44439,7 +44426,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A267" s="1" t="s">
         <v>98</v>
       </c>
@@ -44447,7 +44434,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A268" s="1" t="s">
         <v>101</v>
       </c>
@@ -44455,7 +44442,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A269" s="1" t="s">
         <v>104</v>
       </c>
@@ -44463,7 +44450,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A270" s="1" t="s">
         <v>153</v>
       </c>
@@ -44471,7 +44458,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A271" s="1" t="s">
         <v>213</v>
       </c>
@@ -44479,7 +44466,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A272" s="1" t="s">
         <v>216</v>
       </c>
@@ -44487,7 +44474,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A273" s="1" t="s">
         <v>464</v>
       </c>
@@ -44495,7 +44482,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A274" s="1" t="s">
         <v>467</v>
       </c>
@@ -44503,7 +44490,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A275" s="1" t="s">
         <v>726</v>
       </c>
@@ -44511,7 +44498,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A276" s="1" t="s">
         <v>1015</v>
       </c>
@@ -44519,7 +44506,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A277" s="1" t="s">
         <v>1019</v>
       </c>
@@ -44527,7 +44514,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A278" s="1" t="s">
         <v>1022</v>
       </c>
@@ -44535,7 +44522,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A279" s="1" t="s">
         <v>1065</v>
       </c>
@@ -44543,7 +44530,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A280" s="1" t="s">
         <v>1152</v>
       </c>
@@ -44551,7 +44538,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A281" s="1" t="s">
         <v>1196</v>
       </c>
@@ -44559,7 +44546,7 @@
         <v>1172</v>
       </c>
     </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A282" s="1" t="s">
         <v>1274</v>
       </c>
@@ -44567,7 +44554,7 @@
         <v>1527</v>
       </c>
     </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A283" s="1" t="s">
         <v>1221</v>
       </c>
@@ -44575,7 +44562,7 @@
         <v>1233</v>
       </c>
     </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A284" s="1" t="s">
         <v>1068</v>
       </c>
@@ -44583,7 +44570,7 @@
         <v>1055</v>
       </c>
     </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A285" s="1" t="s">
         <v>219</v>
       </c>
@@ -44591,7 +44578,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A286" s="1" t="s">
         <v>470</v>
       </c>
@@ -44599,7 +44586,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A287" s="1" t="s">
         <v>768</v>
       </c>
@@ -44607,7 +44594,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A288" s="1" t="s">
         <v>957</v>
       </c>
@@ -44615,7 +44602,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A289" s="1" t="s">
         <v>1109</v>
       </c>
@@ -44623,7 +44610,7 @@
         <v>1089</v>
       </c>
     </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A290" s="1" t="s">
         <v>1244</v>
       </c>
@@ -44631,7 +44618,7 @@
         <v>1236</v>
       </c>
     </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A291" s="1" t="s">
         <v>1246</v>
       </c>
@@ -44639,7 +44626,7 @@
         <v>1241</v>
       </c>
     </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A292" s="1" t="s">
         <v>1282</v>
       </c>
@@ -44647,7 +44634,7 @@
         <v>1527</v>
       </c>
     </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A293" s="1" t="s">
         <v>223</v>
       </c>
@@ -44655,7 +44642,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A294" s="1" t="s">
         <v>226</v>
       </c>
@@ -44663,7 +44650,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A295" s="1" t="s">
         <v>472</v>
       </c>
@@ -44671,7 +44658,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A296" s="1" t="s">
         <v>476</v>
       </c>
@@ -44679,7 +44666,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A297" s="1" t="s">
         <v>873</v>
       </c>
@@ -44687,7 +44674,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A298" s="1" t="s">
         <v>1214</v>
       </c>
@@ -44695,7 +44682,7 @@
         <v>1213</v>
       </c>
     </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A299" s="1" t="s">
         <v>1249</v>
       </c>
@@ -44703,7 +44690,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A300" s="1" t="s">
         <v>1253</v>
       </c>
@@ -44711,7 +44698,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A301" s="1" t="s">
         <v>41</v>
       </c>
@@ -44719,7 +44706,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A302" s="1" t="s">
         <v>45</v>
       </c>
@@ -44727,7 +44714,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A303" s="1" t="s">
         <v>322</v>
       </c>
@@ -44735,7 +44722,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A304" s="1" t="s">
         <v>479</v>
       </c>
@@ -44743,7 +44730,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A305" s="1" t="s">
         <v>542</v>
       </c>
@@ -44751,7 +44738,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A306" s="1" t="s">
         <v>623</v>
       </c>
@@ -44759,7 +44746,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A307" s="1" t="s">
         <v>730</v>
       </c>
@@ -44767,7 +44754,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A308" s="1" t="s">
         <v>820</v>
       </c>
@@ -44775,7 +44762,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A309" s="1" t="s">
         <v>1002</v>
       </c>
@@ -44783,7 +44770,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A310" s="1" t="s">
         <v>1321</v>
       </c>
@@ -44791,7 +44778,7 @@
         <v>1535</v>
       </c>
     </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A311" s="1" t="s">
         <v>384</v>
       </c>
@@ -44799,7 +44786,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A312" s="1" t="s">
         <v>387</v>
       </c>
@@ -44807,7 +44794,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A313" s="1" t="s">
         <v>538</v>
       </c>
@@ -44815,7 +44802,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A314" s="1" t="s">
         <v>626</v>
       </c>
@@ -44823,7 +44810,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A315" s="1" t="s">
         <v>629</v>
       </c>
@@ -44831,7 +44818,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A316" s="1" t="s">
         <v>733</v>
       </c>
@@ -44839,7 +44826,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A317" s="1" t="s">
         <v>1296</v>
       </c>
@@ -44847,7 +44834,7 @@
         <v>1529</v>
       </c>
     </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A318" s="1" t="s">
         <v>330</v>
       </c>
@@ -44855,7 +44842,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A319" s="1" t="s">
         <v>486</v>
       </c>
@@ -44863,7 +44850,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A320" s="1" t="s">
         <v>545</v>
       </c>
@@ -44871,7 +44858,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A321" s="1" t="s">
         <v>961</v>
       </c>
@@ -44879,7 +44866,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A322" s="1" t="s">
         <v>1112</v>
       </c>
@@ -44887,7 +44874,7 @@
         <v>1085</v>
       </c>
     </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A323" s="1" t="s">
         <v>1115</v>
       </c>
@@ -44895,7 +44882,7 @@
         <v>1089</v>
       </c>
     </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A324" s="1" t="s">
         <v>1217</v>
       </c>
@@ -44903,7 +44890,7 @@
         <v>1213</v>
       </c>
     </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A325" s="1" t="s">
         <v>1279</v>
       </c>
@@ -44911,7 +44898,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A326" s="1" t="s">
         <v>156</v>
       </c>
@@ -44919,7 +44906,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A327" s="1" t="s">
         <v>326</v>
       </c>
@@ -44927,7 +44914,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A328" s="1" t="s">
         <v>391</v>
       </c>
@@ -44935,7 +44922,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A329" s="1" t="s">
         <v>394</v>
       </c>
@@ -44943,7 +44930,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A330" s="1" t="s">
         <v>482</v>
       </c>
@@ -44951,7 +44938,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A331" s="1" t="s">
         <v>548</v>
       </c>
@@ -44959,7 +44946,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A332" s="1" t="s">
         <v>551</v>
       </c>
@@ -44967,7 +44954,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A333" s="1" t="s">
         <v>632</v>
       </c>
@@ -44975,7 +44962,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A334" s="1" t="s">
         <v>772</v>
       </c>
@@ -44983,7 +44970,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A335" s="1" t="s">
         <v>775</v>
       </c>
@@ -44991,7 +44978,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A336" s="1" t="s">
         <v>1292</v>
       </c>
@@ -44999,7 +44986,7 @@
         <v>1529</v>
       </c>
     </row>
-    <row r="337" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A337" s="1" t="s">
         <v>1305</v>
       </c>
@@ -45007,7 +44994,7 @@
         <v>1532</v>
       </c>
     </row>
-    <row r="338" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A338" s="1" t="s">
         <v>48</v>
       </c>
@@ -45015,7 +45002,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="339" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A339" s="1" t="s">
         <v>159</v>
       </c>
@@ -45023,7 +45010,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="340" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A340" s="1" t="s">
         <v>279</v>
       </c>
@@ -45031,7 +45018,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="341" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A341" s="1" t="s">
         <v>286</v>
       </c>
@@ -45039,7 +45026,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="342" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A342" s="1" t="s">
         <v>397</v>
       </c>
@@ -45047,7 +45034,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="343" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A343" s="1" t="s">
         <v>401</v>
       </c>
@@ -45055,7 +45042,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="344" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A344" s="1" t="s">
         <v>403</v>
       </c>
@@ -45063,7 +45050,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="345" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A345" s="1" t="s">
         <v>489</v>
       </c>
@@ -45071,7 +45058,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A346" s="1" t="s">
         <v>554</v>
       </c>
@@ -45079,7 +45066,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A347" s="1" t="s">
         <v>637</v>
       </c>
@@ -45087,7 +45074,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="348" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A348" s="1" t="s">
         <v>640</v>
       </c>
@@ -45095,7 +45082,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="349" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A349" s="1" t="s">
         <v>645</v>
       </c>
@@ -45103,7 +45090,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="350" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A350" s="1" t="s">
         <v>650</v>
       </c>
@@ -45111,7 +45098,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="351" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A351" s="1" t="s">
         <v>657</v>
       </c>
@@ -45119,7 +45106,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="352" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A352" s="1" t="s">
         <v>738</v>
       </c>
@@ -45127,7 +45114,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="353" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A353" s="1" t="s">
         <v>778</v>
       </c>
@@ -45135,7 +45122,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="354" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A354" s="1" t="s">
         <v>782</v>
       </c>
@@ -45143,7 +45130,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="355" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A355" s="1" t="s">
         <v>786</v>
       </c>
@@ -45151,7 +45138,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="356" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A356" s="1" t="s">
         <v>790</v>
       </c>
@@ -45159,7 +45146,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="357" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A357" s="1" t="s">
         <v>823</v>
       </c>
@@ -45167,7 +45154,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="358" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A358" s="1" t="s">
         <v>877</v>
       </c>
@@ -45175,7 +45162,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="359" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A359" s="1" t="s">
         <v>911</v>
       </c>
@@ -45183,7 +45170,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="360" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A360" s="1" t="s">
         <v>1042</v>
       </c>
@@ -45191,7 +45178,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="361" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A361" s="1" t="s">
         <v>1120</v>
       </c>
@@ -45199,7 +45186,7 @@
         <v>1095</v>
       </c>
     </row>
-    <row r="362" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A362" s="1" t="s">
         <v>1256</v>
       </c>
@@ -45207,7 +45194,7 @@
         <v>1241</v>
       </c>
     </row>
-    <row r="363" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A363" s="1" t="s">
         <v>282</v>
       </c>
@@ -45215,7 +45202,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="364" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A364" s="1" t="s">
         <v>492</v>
       </c>
@@ -45223,7 +45210,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="365" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A365" s="1" t="s">
         <v>653</v>
       </c>
@@ -45231,7 +45218,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="366" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A366" s="1" t="s">
         <v>939</v>
       </c>
@@ -45239,7 +45226,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="367" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A367" s="1" t="s">
         <v>1123</v>
       </c>
@@ -45247,7 +45234,7 @@
         <v>1098</v>
       </c>
     </row>
-    <row r="368" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A368" s="1" t="s">
         <v>1286</v>
       </c>
@@ -45255,7 +45242,7 @@
         <v>1527</v>
       </c>
     </row>
-    <row r="369" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A369" s="1" t="s">
         <v>1311</v>
       </c>
@@ -45263,7 +45250,7 @@
         <v>1532</v>
       </c>
     </row>
-    <row r="370" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A370" s="1" t="s">
         <v>51</v>
       </c>
@@ -45271,7 +45258,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="371" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A371" s="1" t="s">
         <v>162</v>
       </c>
@@ -45279,7 +45266,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="372" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A372" s="1" t="s">
         <v>496</v>
       </c>
@@ -45287,7 +45274,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="373" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A373" s="1" t="s">
         <v>558</v>
       </c>
@@ -45295,7 +45282,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="374" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A374" s="1" t="s">
         <v>561</v>
       </c>
@@ -45303,7 +45290,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="375" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A375" s="1" t="s">
         <v>564</v>
       </c>
@@ -45311,7 +45298,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="376" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A376" s="1" t="s">
         <v>741</v>
       </c>
@@ -45319,7 +45306,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="377" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A377" s="1" t="s">
         <v>852</v>
       </c>
@@ -45327,7 +45314,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="378" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A378" s="1" t="s">
         <v>1077</v>
       </c>
@@ -45335,7 +45322,7 @@
         <v>1049</v>
       </c>
     </row>
-    <row r="379" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A379" s="1" t="s">
         <v>1159</v>
       </c>
@@ -45343,7 +45330,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="380" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A380" s="1" t="s">
         <v>1162</v>
       </c>
@@ -45351,7 +45338,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="381" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A381" s="1" t="s">
         <v>1199</v>
       </c>
@@ -45359,7 +45346,7 @@
         <v>1172</v>
       </c>
     </row>
-    <row r="382" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A382" s="1" t="s">
         <v>1259</v>
       </c>
@@ -45367,7 +45354,7 @@
         <v>1233</v>
       </c>
     </row>
-    <row r="383" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A383" s="1" t="s">
         <v>165</v>
       </c>
@@ -45375,7 +45362,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="384" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A384" s="1" t="s">
         <v>228</v>
       </c>
@@ -45383,7 +45370,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="385" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A385" s="1" t="s">
         <v>406</v>
       </c>
@@ -45391,7 +45378,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="386" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A386" s="1" t="s">
         <v>499</v>
       </c>
@@ -45399,7 +45386,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="387" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A387" s="1" t="s">
         <v>502</v>
       </c>
@@ -45407,7 +45394,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="388" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A388" s="1" t="s">
         <v>567</v>
       </c>
@@ -45415,7 +45402,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="389" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A389" s="1" t="s">
         <v>570</v>
       </c>
@@ -45423,7 +45410,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="390" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A390" s="1" t="s">
         <v>573</v>
       </c>
@@ -45431,7 +45418,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="391" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A391" s="1" t="s">
         <v>661</v>
       </c>
@@ -45439,7 +45426,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="392" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A392" s="1" t="s">
         <v>664</v>
       </c>
@@ -45447,7 +45434,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="393" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A393" s="1" t="s">
         <v>965</v>
       </c>
@@ -45455,7 +45442,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="394" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A394" s="1" t="s">
         <v>968</v>
       </c>
@@ -45463,7 +45450,7 @@
         <v>953</v>
       </c>
     </row>
-    <row r="395" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A395" s="1" t="s">
         <v>1165</v>
       </c>
@@ -45471,7 +45458,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="396" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A396" s="1" t="s">
         <v>1168</v>
       </c>
@@ -45479,7 +45466,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="397" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A397" s="1" t="s">
         <v>1263</v>
       </c>
@@ -45487,7 +45474,7 @@
         <v>1241</v>
       </c>
     </row>
-    <row r="398" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A398" s="1" t="s">
         <v>1325</v>
       </c>
@@ -45495,7 +45482,7 @@
         <v>1535</v>
       </c>
     </row>
-    <row r="399" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A399" s="1" t="s">
         <v>1473</v>
       </c>
@@ -45503,7 +45490,7 @@
         <v>1039</v>
       </c>
     </row>
-    <row r="400" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A400" s="1" t="s">
         <v>1474</v>
       </c>
@@ -45511,7 +45498,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="401" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A401" s="1" t="s">
         <v>1444</v>
       </c>
@@ -45519,7 +45506,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="402" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A402" s="1" t="s">
         <v>1452</v>
       </c>
@@ -45527,7 +45514,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="403" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A403" s="1" t="s">
         <v>1453</v>
       </c>
@@ -45535,7 +45522,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="404" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A404" s="1" t="s">
         <v>1454</v>
       </c>
@@ -45543,7 +45530,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="405" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A405" s="1" t="s">
         <v>1457</v>
       </c>
@@ -45551,7 +45538,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="406" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A406" s="1" t="s">
         <v>1460</v>
       </c>
@@ -45559,7 +45546,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="407" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A407" s="1" t="s">
         <v>1461</v>
       </c>
@@ -45567,7 +45554,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="408" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A408" s="1" t="s">
         <v>1462</v>
       </c>
@@ -45575,7 +45562,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="409" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A409" s="1" t="s">
         <v>1463</v>
       </c>
@@ -45583,7 +45570,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="410" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A410" s="1" t="s">
         <v>1465</v>
       </c>
@@ -45591,7 +45578,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="411" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A411" s="1" t="s">
         <v>1466</v>
       </c>
@@ -45599,7 +45586,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="412" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A412" s="1" t="s">
         <v>1468</v>
       </c>
@@ -45607,7 +45594,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="413" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A413" s="1" t="s">
         <v>1470</v>
       </c>
@@ -45615,7 +45602,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="414" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A414" s="1" t="s">
         <v>1471</v>
       </c>
@@ -45623,7 +45610,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="415" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A415" s="1" t="s">
         <v>1475</v>
       </c>
@@ -45631,7 +45618,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="416" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A416" s="1" t="s">
         <v>1476</v>
       </c>
@@ -45639,7 +45626,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="417" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A417" s="1" t="s">
         <v>1477</v>
       </c>
@@ -45647,7 +45634,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="418" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A418" s="1" t="s">
         <v>1478</v>
       </c>
@@ -45655,7 +45642,7 @@
         <v>1205</v>
       </c>
     </row>
-    <row r="419" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A419" s="1" t="s">
         <v>1482</v>
       </c>
@@ -45663,7 +45650,7 @@
         <v>1530</v>
       </c>
     </row>
-    <row r="420" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A420" s="1" t="s">
         <v>1483</v>
       </c>
@@ -45671,7 +45658,7 @@
         <v>1529</v>
       </c>
     </row>
-    <row r="421" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A421" s="1" t="s">
         <v>1485</v>
       </c>
@@ -45679,7 +45666,7 @@
         <v>1535</v>
       </c>
     </row>
-    <row r="422" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A422" s="1" t="s">
         <v>1446</v>
       </c>
@@ -45687,7 +45674,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="423" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A423" s="1" t="s">
         <v>1448</v>
       </c>
@@ -45695,7 +45682,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="424" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A424" s="1" t="s">
         <v>1458</v>
       </c>
@@ -45703,7 +45690,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="425" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A425" s="1" t="s">
         <v>1464</v>
       </c>
@@ -45711,7 +45698,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="426" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A426" s="1" t="s">
         <v>1467</v>
       </c>
@@ -45719,7 +45706,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="427" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A427" s="1" t="s">
         <v>1469</v>
       </c>
@@ -45727,7 +45714,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="428" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A428" s="1" t="s">
         <v>1472</v>
       </c>
@@ -45735,7 +45722,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="429" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A429" s="1" t="s">
         <v>1480</v>
       </c>
@@ -45743,7 +45730,7 @@
         <v>1527</v>
       </c>
     </row>
-    <row r="430" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A430" s="1" t="s">
         <v>1486</v>
       </c>
@@ -45751,7 +45738,7 @@
         <v>1535</v>
       </c>
     </row>
-    <row r="431" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A431" t="s">
         <v>1536</v>
       </c>
@@ -45759,7 +45746,7 @@
         <v>1527</v>
       </c>
     </row>
-    <row r="432" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A432" t="s">
         <v>1537</v>
       </c>
@@ -45767,7 +45754,7 @@
         <v>1527</v>
       </c>
     </row>
-    <row r="433" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A433" t="s">
         <v>1072</v>
       </c>
@@ -45775,7 +45762,7 @@
         <v>1533</v>
       </c>
     </row>
-    <row r="434" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A434" t="s">
         <v>1538</v>
       </c>
@@ -45796,9 +45783,9 @@
       <selection activeCell="B5" sqref="A2:B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -45806,7 +45793,7 @@
         <v>1525</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>1536</v>
       </c>
@@ -45814,7 +45801,7 @@
         <v>1527</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>1537</v>
       </c>
@@ -45822,7 +45809,7 @@
         <v>1527</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>1072</v>
       </c>
@@ -45830,7 +45817,7 @@
         <v>1533</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>1538</v>
       </c>
@@ -45838,7 +45825,7 @@
         <v>1535</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" s="3"/>
     </row>
   </sheetData>
@@ -45850,13 +45837,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -45882,7 +45869,7 @@
         <v>1521</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1</v>
       </c>
@@ -45912,7 +45899,7 @@
         <v>1937</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>2</v>
       </c>
@@ -45942,7 +45929,7 @@
         <v>1937</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>4</v>
       </c>
@@ -45972,7 +45959,7 @@
         <v>1937</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>11</v>
       </c>
@@ -46002,7 +45989,7 @@
         <v>1937</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>12</v>
       </c>
@@ -46032,7 +46019,7 @@
         <v>1937</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>16</v>
       </c>
@@ -46062,7 +46049,7 @@
         <v>1937</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>20</v>
       </c>
@@ -46092,7 +46079,7 @@
         <v>1937</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>21</v>
       </c>
@@ -46122,7 +46109,7 @@
         <v>1937</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>24</v>
       </c>
@@ -46152,7 +46139,7 @@
         <v>1937</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>26</v>
       </c>
@@ -46182,7 +46169,7 @@
         <v>1937</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>27</v>
       </c>
@@ -46212,7 +46199,7 @@
         <v>1947</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>15</v>
       </c>
@@ -46242,7 +46229,7 @@
         <v>1957</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>19</v>
       </c>
@@ -46272,7 +46259,7 @@
         <v>1958</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>28</v>
       </c>
@@ -46302,7 +46289,7 @@
         <v>1967</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>6</v>
       </c>
@@ -46332,7 +46319,7 @@
         <v>1973</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>8</v>
       </c>
@@ -46362,7 +46349,7 @@
         <v>1973</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>13</v>
       </c>
@@ -46392,7 +46379,7 @@
         <v>1973</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>25</v>
       </c>
@@ -46422,7 +46409,7 @@
         <v>1973</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>29</v>
       </c>
@@ -46452,7 +46439,7 @@
         <v>1973</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>30</v>
       </c>
@@ -46482,7 +46469,7 @@
         <v>1973</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>5</v>
       </c>
@@ -46512,7 +46499,7 @@
         <v>1974</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>14</v>
       </c>
@@ -46542,7 +46529,7 @@
         <v>1976</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>22</v>
       </c>
@@ -46572,7 +46559,7 @@
         <v>1976</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>7</v>
       </c>
@@ -46602,7 +46589,7 @@
         <v>1978</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>3</v>
       </c>
@@ -46632,7 +46619,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A27">
         <v>18</v>
       </c>
@@ -46662,7 +46649,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A28">
         <v>17</v>
       </c>
@@ -46692,7 +46679,7 @@
         <v>1997</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A29">
         <v>23</v>
       </c>
@@ -46722,7 +46709,7 @@
         <v>1997</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A30">
         <v>9</v>
       </c>
@@ -46752,7 +46739,7 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A31">
         <v>10</v>
       </c>
@@ -46782,7 +46769,7 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A32">
         <v>31</v>
       </c>
@@ -46797,7 +46784,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B33" t="s">
         <v>1515</v>
       </c>
